--- a/data/xlsxParser.xlsx
+++ b/data/xlsxParser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garma\dashProjects\firstDashProj\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D85818-A586-45A1-92E5-98DE5683992B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AE76AC-7038-4891-837B-E5DBDE06EAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11445,6 +11445,213 @@
     <xf numFmtId="3" fontId="52" fillId="8" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="52" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="7" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="7" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="7" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="7" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="53" fillId="8" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="53" fillId="8" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="48" fillId="2" borderId="19" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="48" fillId="2" borderId="20" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="7" borderId="25" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="7" borderId="26" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="2" borderId="19" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="2" borderId="20" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="7" borderId="16" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="53" fillId="8" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="2" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="2" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="2" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="2" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="48" fillId="3" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="48" fillId="3" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="48" fillId="3" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="48" fillId="3" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="2" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="2" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="2" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="2" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="3" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="3" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="52" fillId="8" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="8" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="8" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="8" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="48" fillId="8" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="52" fillId="8" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="8" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="8" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="8" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="7" borderId="24" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="47" fillId="8" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="54" fillId="8" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="48" fillId="8" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="48" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="8" borderId="24" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="8" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="8" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="9" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="9" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="53" fillId="8" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="55" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="48" fillId="8" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="8" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="58" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="10" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="10" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="11" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="53" fillId="11" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="8" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="8" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="53" fillId="3" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -11472,27 +11679,81 @@
     <xf numFmtId="3" fontId="53" fillId="3" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="53" fillId="7" borderId="16" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="8" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="3" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="3" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="7" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="7" borderId="13" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="7" borderId="16" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="3" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="3" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="3" borderId="25" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="3" borderId="26" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="3" fontId="53" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="53" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="52" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="52" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="52" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="53" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -11502,266 +11763,38 @@
     <xf numFmtId="3" fontId="52" fillId="7" borderId="14" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="53" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="52" fillId="3" borderId="19" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="52" fillId="3" borderId="20" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="53" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="52" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="52" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="47" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="47" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="7" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="7" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="11" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="11" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="52" fillId="8" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="52" fillId="8" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="48" fillId="8" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="52" fillId="8" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="52" fillId="8" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="7" borderId="16" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="8" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="47" fillId="3" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="47" fillId="3" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="52" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="7" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="7" borderId="13" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="7" borderId="16" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="3" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="3" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="8" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="7" borderId="25" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="7" borderId="26" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="58" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="55" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="10" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="10" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="8" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="52" fillId="8" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="8" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="8" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="53" fillId="8" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="48" fillId="8" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="48" fillId="8" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="54" fillId="8" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="47" fillId="8" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="48" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="8" borderId="24" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="9" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="9" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="52" fillId="8" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="8" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="8" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="52" fillId="8" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="7" borderId="24" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="53" fillId="8" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="53" fillId="8" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="53" fillId="8" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="2" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="2" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="2" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="2" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="48" fillId="3" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="48" fillId="3" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="48" fillId="3" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="48" fillId="3" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="2" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="2" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="2" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="2" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="47" fillId="3" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="47" fillId="3" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="7" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="7" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="48" fillId="2" borderId="19" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="48" fillId="2" borderId="20" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="2" borderId="19" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="2" borderId="20" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="53" fillId="7" borderId="16" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -11781,18 +11814,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -11805,32 +11826,11 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="3" borderId="25" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="3" borderId="26" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="36">
@@ -12566,10 +12566,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -12864,11 +12860,11 @@
   <dimension ref="A1:AT106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="9" topLeftCell="F78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="9" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="F94" sqref="F94:G94"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12953,34 +12949,34 @@
       <c r="AT3" s="85"/>
     </row>
     <row r="4" spans="1:46" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="228" t="s">
+      <c r="A4" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="163" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="230" t="s">
+      <c r="C4" s="165" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="230" t="s">
+      <c r="D4" s="165" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="230"/>
-      <c r="F4" s="236" t="s">
+      <c r="E4" s="165"/>
+      <c r="F4" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="238" t="s">
+      <c r="G4" s="173" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:46" s="84" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="229"/>
-      <c r="B5" s="229"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="239"/>
+      <c r="A5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="174"/>
       <c r="H5" s="78" t="s">
         <v>328</v>
       </c>
@@ -13006,15 +13002,15 @@
       <c r="C6" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="234" t="s">
+      <c r="D6" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="235"/>
-      <c r="F6" s="232">
+      <c r="E6" s="170"/>
+      <c r="F6" s="167">
         <f t="shared" ref="F6" si="0">IFERROR(IF(AND(F7&gt;=1,F8&gt;=1,F7&lt;&gt;"****",F8&lt;&gt;"****"),2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="233"/>
+      <c r="G6" s="168"/>
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
       <c r="M6" s="57"/>
@@ -13035,29 +13031,29 @@
       <c r="A7" s="118"/>
       <c r="B7" s="119"/>
       <c r="C7" s="120"/>
-      <c r="D7" s="226" t="s">
+      <c r="D7" s="161" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="227"/>
-      <c r="F7" s="224">
+      <c r="E7" s="162"/>
+      <c r="F7" s="159">
         <f>IFERROR(IF(OR(ISBLANK(F89),ISBLANK(F90),ISBLANK(F92),ISBLANK(F93),ISBLANK(F95),ISBLANK(F96),ISBLANK(F98),ISBLANK(F99),ISBLANK(F101),ISBLANK(F102),ISBLANK(F104),ISBLANK(F105)),"****",IF(AND(F91&gt;=1,F94&gt;=1,F97&gt;=1,F100&gt;=1,F103&gt;=1,F106&gt;=1),1,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="225"/>
+      <c r="G7" s="160"/>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" s="118"/>
       <c r="B8" s="119"/>
       <c r="C8" s="120"/>
-      <c r="D8" s="226" t="s">
+      <c r="D8" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="227"/>
-      <c r="F8" s="224">
+      <c r="E8" s="162"/>
+      <c r="F8" s="159">
         <f t="shared" ref="F8" si="1">IFERROR(IF((F32+F47+F59+F63+F67+F71+F75+F79+F83+F87)&gt;=1.4,1,0),"****")</f>
         <v>1</v>
       </c>
-      <c r="G8" s="225"/>
+      <c r="G8" s="160"/>
     </row>
     <row r="9" spans="1:46" s="78" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="121"/>
@@ -13065,15 +13061,15 @@
       <c r="C9" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="244" t="s">
+      <c r="D9" s="155" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="245"/>
-      <c r="F9" s="242">
+      <c r="E9" s="156"/>
+      <c r="F9" s="150">
         <f t="shared" ref="F9" si="2">IFERROR((IF(((F32+F47+F59+F63+F67+F71+F75+F79+F83+F87)/100)&gt;0.02,0.02,((F32+F47+F59+F63+F67+F71+F75+F79+F83+F87)/100))),"****")</f>
         <v>1.4000000000000004E-2</v>
       </c>
-      <c r="G9" s="243"/>
+      <c r="G9" s="151"/>
       <c r="K9" s="79"/>
       <c r="L9" s="79"/>
       <c r="M9" s="79"/>
@@ -13117,23 +13113,23 @@
       <c r="AT10" s="82"/>
     </row>
     <row r="11" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="183" t="s">
+      <c r="A11" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="193">
+      <c r="B11" s="142">
         <v>0.8</v>
       </c>
-      <c r="C11" s="190" t="s">
+      <c r="C11" s="143" t="s">
         <v>304</v>
       </c>
-      <c r="D11" s="240" t="s">
+      <c r="D11" s="144" t="s">
         <v>326</v>
       </c>
-      <c r="E11" s="241"/>
-      <c r="F11" s="246">
+      <c r="E11" s="145"/>
+      <c r="F11" s="157">
         <v>200000</v>
       </c>
-      <c r="G11" s="246"/>
+      <c r="G11" s="157"/>
       <c r="K11" s="60"/>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
@@ -13142,17 +13138,17 @@
       <c r="AT11" s="60"/>
     </row>
     <row r="12" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="183"/>
-      <c r="B12" s="193"/>
-      <c r="C12" s="190"/>
-      <c r="D12" s="169" t="s">
+      <c r="A12" s="141"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E12" s="170"/>
-      <c r="F12" s="192">
+      <c r="E12" s="147"/>
+      <c r="F12" s="152">
         <v>200001</v>
       </c>
-      <c r="G12" s="192"/>
+      <c r="G12" s="152"/>
       <c r="K12" s="60"/>
       <c r="L12" s="60"/>
       <c r="M12" s="60"/>
@@ -13161,33 +13157,33 @@
       <c r="AT12" s="60"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
-      <c r="B13" s="193"/>
-      <c r="C13" s="190"/>
-      <c r="D13" s="222" t="s">
+      <c r="A13" s="141"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="223"/>
-      <c r="F13" s="221">
+      <c r="E13" s="149"/>
+      <c r="F13" s="158">
         <f t="shared" ref="F13" si="3">IFERROR(IF(OR(ISBLANK(F11),ISBLANK(F12),AND(F11=0,F12=0),F11&lt;=0),"****",F12/F11),"***")</f>
         <v>1.000005</v>
       </c>
-      <c r="G13" s="221"/>
+      <c r="G13" s="158"/>
     </row>
     <row r="14" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="190" t="s">
+      <c r="A14" s="141"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="169" t="s">
+      <c r="D14" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E14" s="170"/>
-      <c r="F14" s="192">
+      <c r="E14" s="147"/>
+      <c r="F14" s="152">
         <v>1700000</v>
       </c>
-      <c r="G14" s="192"/>
+      <c r="G14" s="152"/>
       <c r="K14" s="60"/>
       <c r="L14" s="60"/>
       <c r="M14" s="60"/>
@@ -13196,17 +13192,17 @@
       <c r="AT14" s="60"/>
     </row>
     <row r="15" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="183"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="190"/>
-      <c r="D15" s="169" t="s">
+      <c r="A15" s="141"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E15" s="170"/>
-      <c r="F15" s="194">
+      <c r="E15" s="147"/>
+      <c r="F15" s="153">
         <v>500000</v>
       </c>
-      <c r="G15" s="195"/>
+      <c r="G15" s="154"/>
       <c r="K15" s="60"/>
       <c r="L15" s="60"/>
       <c r="M15" s="60"/>
@@ -13215,33 +13211,33 @@
       <c r="AT15" s="60"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A16" s="183"/>
-      <c r="B16" s="193"/>
-      <c r="C16" s="190"/>
-      <c r="D16" s="222" t="s">
+      <c r="A16" s="141"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="223"/>
-      <c r="F16" s="221">
+      <c r="E16" s="149"/>
+      <c r="F16" s="158">
         <f t="shared" ref="F16" si="4">IFERROR(IF(OR(ISBLANK(F14),ISBLANK(F15),AND(F14=0,F15=0),F14&lt;=0),"****",F15/F14),"***")</f>
         <v>0.29411764705882354</v>
       </c>
-      <c r="G16" s="221"/>
+      <c r="G16" s="158"/>
     </row>
     <row r="17" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="183"/>
-      <c r="B17" s="193"/>
-      <c r="C17" s="190" t="s">
+      <c r="A17" s="141"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="143" t="s">
         <v>211</v>
       </c>
-      <c r="D17" s="169" t="s">
+      <c r="D17" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E17" s="170"/>
-      <c r="F17" s="192">
+      <c r="E17" s="147"/>
+      <c r="F17" s="152">
         <v>100000</v>
       </c>
-      <c r="G17" s="192"/>
+      <c r="G17" s="152"/>
       <c r="K17" s="60"/>
       <c r="L17" s="60"/>
       <c r="M17" s="60"/>
@@ -13250,17 +13246,17 @@
       <c r="AT17" s="60"/>
     </row>
     <row r="18" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="183"/>
-      <c r="B18" s="193"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="169" t="s">
+      <c r="A18" s="141"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="192">
+      <c r="E18" s="147"/>
+      <c r="F18" s="152">
         <v>100001</v>
       </c>
-      <c r="G18" s="192"/>
+      <c r="G18" s="152"/>
       <c r="K18" s="60"/>
       <c r="L18" s="60"/>
       <c r="M18" s="60"/>
@@ -13269,33 +13265,33 @@
       <c r="AT18" s="60"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A19" s="183"/>
-      <c r="B19" s="193"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="222" t="s">
+      <c r="A19" s="141"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="223"/>
-      <c r="F19" s="221">
+      <c r="E19" s="149"/>
+      <c r="F19" s="158">
         <f t="shared" ref="F19" si="5">IFERROR(IF(OR(ISBLANK(F17),ISBLANK(F18),AND(F17=0,F18=0),F17&lt;=0),"****",F18/F17),"***")</f>
         <v>1.0000100000000001</v>
       </c>
-      <c r="G19" s="221"/>
+      <c r="G19" s="158"/>
     </row>
     <row r="20" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="183"/>
-      <c r="B20" s="193"/>
-      <c r="C20" s="190" t="s">
+      <c r="A20" s="141"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143" t="s">
         <v>303</v>
       </c>
-      <c r="D20" s="169" t="s">
+      <c r="D20" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E20" s="170"/>
-      <c r="F20" s="192">
+      <c r="E20" s="147"/>
+      <c r="F20" s="152">
         <v>1000000</v>
       </c>
-      <c r="G20" s="192"/>
+      <c r="G20" s="152"/>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
       <c r="M20" s="60"/>
@@ -13304,17 +13300,17 @@
       <c r="AT20" s="60"/>
     </row>
     <row r="21" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
-      <c r="B21" s="193"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="169" t="s">
+      <c r="A21" s="141"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E21" s="170"/>
-      <c r="F21" s="192">
+      <c r="E21" s="147"/>
+      <c r="F21" s="152">
         <v>1001000</v>
       </c>
-      <c r="G21" s="192"/>
+      <c r="G21" s="152"/>
       <c r="K21" s="60"/>
       <c r="L21" s="60"/>
       <c r="M21" s="60"/>
@@ -13323,33 +13319,33 @@
       <c r="AT21" s="60"/>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
-      <c r="B22" s="193"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="222" t="s">
+      <c r="A22" s="141"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="223"/>
-      <c r="F22" s="221">
+      <c r="E22" s="149"/>
+      <c r="F22" s="158">
         <f t="shared" ref="F22" si="6">IFERROR(IF(OR(ISBLANK(F20),ISBLANK(F21),AND(F20=0,F21=0),F20&lt;=0),"****",F21/F20),"***")</f>
         <v>1.0009999999999999</v>
       </c>
-      <c r="G22" s="221"/>
+      <c r="G22" s="158"/>
     </row>
     <row r="23" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="183"/>
-      <c r="B23" s="193"/>
-      <c r="C23" s="190" t="s">
+      <c r="A23" s="141"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="169" t="s">
+      <c r="D23" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E23" s="170"/>
-      <c r="F23" s="192">
+      <c r="E23" s="147"/>
+      <c r="F23" s="152">
         <v>100000</v>
       </c>
-      <c r="G23" s="192"/>
+      <c r="G23" s="152"/>
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
       <c r="M23" s="60"/>
@@ -13358,17 +13354,17 @@
       <c r="AT23" s="60"/>
     </row>
     <row r="24" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="183"/>
-      <c r="B24" s="193"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="169" t="s">
+      <c r="A24" s="141"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E24" s="170"/>
-      <c r="F24" s="192">
-        <v>15000</v>
-      </c>
-      <c r="G24" s="192"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="152">
+        <v>150000</v>
+      </c>
+      <c r="G24" s="152"/>
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
       <c r="M24" s="60"/>
@@ -13377,33 +13373,33 @@
       <c r="AT24" s="60"/>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
-      <c r="B25" s="193"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="222" t="s">
+      <c r="A25" s="141"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="223"/>
-      <c r="F25" s="221">
+      <c r="E25" s="149"/>
+      <c r="F25" s="158">
         <f t="shared" ref="F25" si="7">IFERROR(IF(OR(ISBLANK(F23),ISBLANK(F24),AND(F23=0,F24=0),F23&lt;=0),"****",F24/F23),"***")</f>
-        <v>0.15</v>
-      </c>
-      <c r="G25" s="221"/>
+        <v>1.5</v>
+      </c>
+      <c r="G25" s="158"/>
     </row>
     <row r="26" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
-      <c r="B26" s="193"/>
-      <c r="C26" s="190" t="s">
+      <c r="A26" s="141"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="143" t="s">
         <v>210</v>
       </c>
-      <c r="D26" s="169" t="s">
+      <c r="D26" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E26" s="170"/>
-      <c r="F26" s="192">
+      <c r="E26" s="147"/>
+      <c r="F26" s="152">
         <v>150000</v>
       </c>
-      <c r="G26" s="192"/>
+      <c r="G26" s="152"/>
       <c r="K26" s="60"/>
       <c r="L26" s="60"/>
       <c r="M26" s="60"/>
@@ -13412,17 +13408,17 @@
       <c r="AT26" s="60"/>
     </row>
     <row r="27" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="183"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="169" t="s">
+      <c r="A27" s="141"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E27" s="170"/>
-      <c r="F27" s="192">
+      <c r="E27" s="147"/>
+      <c r="F27" s="152">
         <v>175000</v>
       </c>
-      <c r="G27" s="192"/>
+      <c r="G27" s="152"/>
       <c r="K27" s="60"/>
       <c r="L27" s="60"/>
       <c r="M27" s="60"/>
@@ -13431,23 +13427,23 @@
       <c r="AT27" s="60"/>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A28" s="183"/>
-      <c r="B28" s="193"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="222" t="s">
+      <c r="A28" s="141"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="223"/>
-      <c r="F28" s="221">
+      <c r="E28" s="149"/>
+      <c r="F28" s="158">
         <f t="shared" ref="F28" si="8">IFERROR(IF(OR(ISBLANK(F26),ISBLANK(F27),AND(F26=0,F27=0),F26&lt;=0),"****",F27/F26),"***")</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G28" s="221"/>
+      <c r="G28" s="158"/>
     </row>
     <row r="29" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="202" t="s">
+      <c r="A29" s="141"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="176" t="s">
         <v>231</v>
       </c>
       <c r="D29" s="131" t="s">
@@ -13456,11 +13452,11 @@
       <c r="E29" s="132">
         <v>0.85</v>
       </c>
-      <c r="F29" s="216">
+      <c r="F29" s="175">
         <f t="shared" ref="F29" si="9">IFERROR(IF(OR(ISBLANK(F11),ISBLANK(F12),ISBLANK(F14),ISBLANK(F15),ISBLANK(F17),ISBLANK(F18),ISBLANK(F20),ISBLANK(F21),ISBLANK(F23),ISBLANK(F24),ISBLANK(F26),ISBLANK(F27),AND(F11=0,F12=0,F14=0,F15=0,F17=0,F18=0,F20=0,F21=0,F23=0,F24=0,F26=0,F27=0),),"****",(F12+F15+F18+F21+F24+F27)/(F11+F14+F17+F20+F23+F26)),"***")</f>
-        <v>0.61261600000000005</v>
-      </c>
-      <c r="G29" s="216"/>
+        <v>0.65415446153846157</v>
+      </c>
+      <c r="G29" s="175"/>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
       <c r="M29" s="57"/>
@@ -13478,20 +13474,20 @@
       <c r="AT29" s="57"/>
     </row>
     <row r="30" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
-      <c r="B30" s="193"/>
-      <c r="C30" s="202"/>
+      <c r="A30" s="141"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="176"/>
       <c r="D30" s="131" t="s">
         <v>215</v>
       </c>
       <c r="E30" s="132">
         <v>0.75</v>
       </c>
-      <c r="F30" s="219">
+      <c r="F30" s="180">
         <f t="shared" ref="F30" si="10">IFERROR(AVERAGE(F12/F11,F15/F14,F18/F17,F21/F20,F24/F23,F27/F26),"***")</f>
-        <v>0.76863321895424841</v>
-      </c>
-      <c r="G30" s="219"/>
+        <v>0.99363321895424839</v>
+      </c>
+      <c r="G30" s="180"/>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
       <c r="M30" s="57"/>
@@ -13509,20 +13505,20 @@
       <c r="AT30" s="57"/>
     </row>
     <row r="31" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="183"/>
-      <c r="B31" s="193"/>
-      <c r="C31" s="202"/>
+      <c r="A31" s="141"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="176"/>
       <c r="D31" s="133" t="s">
         <v>228</v>
       </c>
       <c r="E31" s="134">
         <v>4</v>
       </c>
-      <c r="F31" s="206">
+      <c r="F31" s="179">
         <f t="shared" ref="F31" si="11">IFERROR((IF(F12/F11&gt;=1,1,0)+IF(F15/F14&gt;=1,1,0)+IF(F18/F17&gt;=1,1,0)+IF(F21/F20&gt;=1,1,0)+IF(F24/F23&gt;=1,1,0)+IF(F27/F26&gt;=1,1,0)),"***")</f>
-        <v>4</v>
-      </c>
-      <c r="G31" s="206"/>
+        <v>5</v>
+      </c>
+      <c r="G31" s="179"/>
       <c r="K31" s="57"/>
       <c r="L31" s="57"/>
       <c r="M31" s="57"/>
@@ -13540,18 +13536,18 @@
       <c r="AT31" s="57"/>
     </row>
     <row r="32" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="183"/>
-      <c r="B32" s="193"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="217" t="s">
+      <c r="A32" s="141"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="218"/>
-      <c r="F32" s="201">
+      <c r="E32" s="178"/>
+      <c r="F32" s="181">
         <f t="shared" ref="F32" si="12">IFERROR(IF(OR(ISBLANK(F11),ISBLANK(F12),ISBLANK(F14),ISBLANK(F15),ISBLANK(F17),ISBLANK(F18),ISBLANK(F20),ISBLANK(F21),ISBLANK(F23),ISBLANK(F24),ISBLANK(F26),ISBLANK(F27),AND(F11=0,F14=0,F17=0,F20=0,F23=0,F26=0),OR(F12&lt;0,F14&lt;0,F17&lt;0,F20&lt;0,F23&lt;0,F26&lt;0)),"****",IF(AND(F29&gt;=$E$29,F30&gt;=$E$30,F31&gt;=$E$31),$B$11,0)),"****")</f>
         <v>0</v>
       </c>
-      <c r="G32" s="201"/>
+      <c r="G32" s="181"/>
       <c r="K32" s="57"/>
       <c r="L32" s="57"/>
       <c r="M32" s="57"/>
@@ -13569,23 +13565,23 @@
       <c r="AT32" s="57"/>
     </row>
     <row r="33" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="183" t="s">
+      <c r="A33" s="141" t="s">
         <v>221</v>
       </c>
-      <c r="B33" s="193">
+      <c r="B33" s="142">
         <v>0.3</v>
       </c>
-      <c r="C33" s="190" t="s">
+      <c r="C33" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="169" t="s">
+      <c r="D33" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E33" s="170"/>
-      <c r="F33" s="220">
+      <c r="E33" s="147"/>
+      <c r="F33" s="184">
         <v>300000</v>
       </c>
-      <c r="G33" s="220"/>
+      <c r="G33" s="184"/>
       <c r="K33" s="60"/>
       <c r="L33" s="60"/>
       <c r="M33" s="60"/>
@@ -13594,17 +13590,17 @@
       <c r="AT33" s="60"/>
     </row>
     <row r="34" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="183"/>
-      <c r="B34" s="193"/>
-      <c r="C34" s="190"/>
-      <c r="D34" s="169" t="s">
+      <c r="A34" s="141"/>
+      <c r="B34" s="142"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E34" s="170"/>
-      <c r="F34" s="192">
+      <c r="E34" s="147"/>
+      <c r="F34" s="152">
         <v>350000</v>
       </c>
-      <c r="G34" s="192"/>
+      <c r="G34" s="152"/>
       <c r="K34" s="60"/>
       <c r="L34" s="60"/>
       <c r="M34" s="60"/>
@@ -13613,33 +13609,33 @@
       <c r="AT34" s="60"/>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A35" s="183"/>
-      <c r="B35" s="193"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="203" t="s">
+      <c r="A35" s="141"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="204"/>
-      <c r="F35" s="209">
+      <c r="E35" s="183"/>
+      <c r="F35" s="185">
         <f t="shared" ref="F35" si="13">IFERROR(IF(OR(ISBLANK(F33),ISBLANK(F34),AND(F33=0,F34=0),F33&lt;=0),"****",F34/F33),"***")</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G35" s="209"/>
+      <c r="G35" s="185"/>
     </row>
     <row r="36" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="183"/>
-      <c r="B36" s="193"/>
-      <c r="C36" s="190" t="s">
+      <c r="A36" s="141"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="169" t="s">
+      <c r="D36" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E36" s="170"/>
-      <c r="F36" s="220">
+      <c r="E36" s="147"/>
+      <c r="F36" s="184">
         <v>300000</v>
       </c>
-      <c r="G36" s="220"/>
+      <c r="G36" s="184"/>
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
       <c r="M36" s="60"/>
@@ -13648,17 +13644,17 @@
       <c r="AT36" s="60"/>
     </row>
     <row r="37" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
-      <c r="B37" s="193"/>
-      <c r="C37" s="190"/>
-      <c r="D37" s="169" t="s">
+      <c r="A37" s="141"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E37" s="170"/>
-      <c r="F37" s="210">
+      <c r="E37" s="147"/>
+      <c r="F37" s="186">
         <v>400000</v>
       </c>
-      <c r="G37" s="210"/>
+      <c r="G37" s="186"/>
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
       <c r="M37" s="60"/>
@@ -13667,33 +13663,33 @@
       <c r="AT37" s="60"/>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
-      <c r="B38" s="193"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="203" t="s">
+      <c r="A38" s="141"/>
+      <c r="B38" s="142"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="204"/>
-      <c r="F38" s="209">
+      <c r="E38" s="183"/>
+      <c r="F38" s="185">
         <f t="shared" ref="F38" si="14">IFERROR(IF(OR(ISBLANK(F36),ISBLANK(F37),AND(F36=0,F37=0),F36&lt;=0),"****",F37/F36),"***")</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G38" s="209"/>
+      <c r="G38" s="185"/>
     </row>
     <row r="39" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="183"/>
-      <c r="B39" s="193"/>
-      <c r="C39" s="190" t="s">
+      <c r="A39" s="141"/>
+      <c r="B39" s="142"/>
+      <c r="C39" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="169" t="s">
+      <c r="D39" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E39" s="170"/>
-      <c r="F39" s="215">
+      <c r="E39" s="147"/>
+      <c r="F39" s="187">
         <v>50000</v>
       </c>
-      <c r="G39" s="215"/>
+      <c r="G39" s="187"/>
       <c r="K39" s="60"/>
       <c r="L39" s="60"/>
       <c r="M39" s="60"/>
@@ -13702,17 +13698,17 @@
       <c r="AT39" s="60"/>
     </row>
     <row r="40" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="183"/>
-      <c r="B40" s="193"/>
-      <c r="C40" s="190"/>
-      <c r="D40" s="169" t="s">
+      <c r="A40" s="141"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E40" s="170"/>
-      <c r="F40" s="210">
+      <c r="E40" s="147"/>
+      <c r="F40" s="186">
         <v>150000</v>
       </c>
-      <c r="G40" s="210"/>
+      <c r="G40" s="186"/>
       <c r="K40" s="60"/>
       <c r="L40" s="60"/>
       <c r="M40" s="60"/>
@@ -13721,33 +13717,33 @@
       <c r="AT40" s="60"/>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A41" s="183"/>
-      <c r="B41" s="193"/>
-      <c r="C41" s="190"/>
-      <c r="D41" s="203" t="s">
+      <c r="A41" s="141"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="204"/>
-      <c r="F41" s="209">
+      <c r="E41" s="183"/>
+      <c r="F41" s="185">
         <f t="shared" ref="F41" si="15">IFERROR(IF(OR(ISBLANK(F39),ISBLANK(F40),AND(F39=0,F40=0),F39&lt;=0),"****",F40/F39),"***")</f>
         <v>3</v>
       </c>
-      <c r="G41" s="209"/>
+      <c r="G41" s="185"/>
     </row>
     <row r="42" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
-      <c r="B42" s="193"/>
-      <c r="C42" s="190" t="s">
+      <c r="A42" s="141"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="143" t="s">
         <v>227</v>
       </c>
-      <c r="D42" s="169" t="s">
+      <c r="D42" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E42" s="170"/>
-      <c r="F42" s="215">
+      <c r="E42" s="147"/>
+      <c r="F42" s="187">
         <v>50000</v>
       </c>
-      <c r="G42" s="215"/>
+      <c r="G42" s="187"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
       <c r="M42" s="60"/>
@@ -13756,17 +13752,17 @@
       <c r="AT42" s="60"/>
     </row>
     <row r="43" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="183"/>
-      <c r="B43" s="193"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="169" t="s">
+      <c r="A43" s="141"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E43" s="170"/>
-      <c r="F43" s="210">
+      <c r="E43" s="147"/>
+      <c r="F43" s="186">
         <v>25000</v>
       </c>
-      <c r="G43" s="210"/>
+      <c r="G43" s="186"/>
       <c r="K43" s="60"/>
       <c r="L43" s="60"/>
       <c r="M43" s="60"/>
@@ -13775,23 +13771,23 @@
       <c r="AT43" s="60"/>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A44" s="183"/>
-      <c r="B44" s="193"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="203" t="s">
+      <c r="A44" s="141"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="204"/>
-      <c r="F44" s="209">
+      <c r="E44" s="183"/>
+      <c r="F44" s="185">
         <f t="shared" ref="F44" si="16">IFERROR(IF(OR(ISBLANK(F42),ISBLANK(F43),AND(F42=0,F43=0),F42&lt;=0),"****",F43/F42),"***")</f>
         <v>0.5</v>
       </c>
-      <c r="G44" s="209"/>
+      <c r="G44" s="185"/>
     </row>
     <row r="45" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
-      <c r="B45" s="193"/>
-      <c r="C45" s="208" t="s">
+      <c r="A45" s="141"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="188" t="s">
         <v>231</v>
       </c>
       <c r="D45" s="140" t="s">
@@ -13800,11 +13796,11 @@
       <c r="E45" s="132">
         <v>0.85</v>
       </c>
-      <c r="F45" s="207">
+      <c r="F45" s="189">
         <f t="shared" ref="F45" si="17">IFERROR(IF(OR(ISBLANK(F33),ISBLANK(F34),ISBLANK(F36),ISBLANK(F37),ISBLANK(F39),ISBLANK(F40),ISBLANK(F42),ISBLANK(F43),AND(F33=0,F34=0,F36=0,F37=0,F39=0,F40=0,F42=0,F43=0),),"****",(F34+F37+F40+F43)/(F33+F36+F39+F42)),"***")</f>
         <v>1.3214285714285714</v>
       </c>
-      <c r="G45" s="207"/>
+      <c r="G45" s="189"/>
       <c r="K45" s="57"/>
       <c r="L45" s="57"/>
       <c r="M45" s="57"/>
@@ -13822,20 +13818,20 @@
       <c r="AT45" s="57"/>
     </row>
     <row r="46" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="183"/>
-      <c r="B46" s="193"/>
-      <c r="C46" s="208"/>
+      <c r="A46" s="141"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="188"/>
       <c r="D46" s="135" t="s">
         <v>228</v>
       </c>
       <c r="E46" s="140">
         <v>3</v>
       </c>
-      <c r="F46" s="206">
+      <c r="F46" s="179">
         <f t="shared" ref="F46" si="18">IFERROR((IF(F34/F33&gt;=1,1,0)+IF(F37/F36&gt;=1,1,0)+IF(F40/F39&gt;=1,1,0)+IF(F43/F42&gt;=1,1,0)),"***")</f>
         <v>3</v>
       </c>
-      <c r="G46" s="206"/>
+      <c r="G46" s="179"/>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
       <c r="M46" s="57"/>
@@ -13853,18 +13849,18 @@
       <c r="AT46" s="57"/>
     </row>
     <row r="47" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="183"/>
-      <c r="B47" s="193"/>
-      <c r="C47" s="208"/>
-      <c r="D47" s="176" t="s">
+      <c r="A47" s="141"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="177"/>
-      <c r="F47" s="212">
+      <c r="E47" s="193"/>
+      <c r="F47" s="191">
         <f t="shared" ref="F47" si="19">IFERROR(IF(OR(ISBLANK(F33),ISBLANK(F34),ISBLANK(F36),ISBLANK(F37),ISBLANK(F39),ISBLANK(F40),ISBLANK(F42),ISBLANK(F43),AND(F33=0,F36=0,F39=0,F42=0),OR(F34&lt;0,F37&lt;0,F40&lt;0,F43&lt;0)),"****",IF(AND(F45&gt;=$E$45,F46&gt;=$E$46),$B$33,0)),"****")</f>
         <v>0.3</v>
       </c>
-      <c r="G47" s="212"/>
+      <c r="G47" s="191"/>
       <c r="K47" s="57"/>
       <c r="L47" s="57"/>
       <c r="M47" s="57"/>
@@ -13882,23 +13878,23 @@
       <c r="AT47" s="57"/>
     </row>
     <row r="48" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="211" t="s">
+      <c r="A48" s="190" t="s">
         <v>224</v>
       </c>
-      <c r="B48" s="193">
+      <c r="B48" s="142">
         <v>0.3</v>
       </c>
-      <c r="C48" s="190" t="s">
+      <c r="C48" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="169" t="s">
+      <c r="D48" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E48" s="170"/>
-      <c r="F48" s="213">
+      <c r="E48" s="147"/>
+      <c r="F48" s="194">
         <v>150000</v>
       </c>
-      <c r="G48" s="214"/>
+      <c r="G48" s="195"/>
       <c r="K48" s="60"/>
       <c r="L48" s="60"/>
       <c r="M48" s="60"/>
@@ -13907,17 +13903,17 @@
       <c r="AT48" s="60"/>
     </row>
     <row r="49" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="211"/>
-      <c r="B49" s="193"/>
-      <c r="C49" s="190"/>
-      <c r="D49" s="169" t="s">
+      <c r="A49" s="190"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E49" s="170"/>
-      <c r="F49" s="192">
+      <c r="E49" s="147"/>
+      <c r="F49" s="152">
         <v>150000</v>
       </c>
-      <c r="G49" s="192"/>
+      <c r="G49" s="152"/>
       <c r="K49" s="60"/>
       <c r="L49" s="60"/>
       <c r="M49" s="60"/>
@@ -13926,33 +13922,33 @@
       <c r="AT49" s="60"/>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A50" s="211"/>
-      <c r="B50" s="193"/>
-      <c r="C50" s="190"/>
-      <c r="D50" s="203" t="s">
+      <c r="A50" s="190"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="204"/>
-      <c r="F50" s="205">
+      <c r="E50" s="183"/>
+      <c r="F50" s="196">
         <f t="shared" ref="F50" si="20">IFERROR(IF(OR(ISBLANK(F48),ISBLANK(F49),AND(F48=0,F49=0),F48&lt;=0),"****",F49/F48),"***")</f>
         <v>1</v>
       </c>
-      <c r="G50" s="205"/>
+      <c r="G50" s="196"/>
     </row>
     <row r="51" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="211"/>
-      <c r="B51" s="193"/>
-      <c r="C51" s="190" t="s">
+      <c r="A51" s="190"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="169" t="s">
+      <c r="D51" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E51" s="170"/>
-      <c r="F51" s="192">
+      <c r="E51" s="147"/>
+      <c r="F51" s="152">
         <v>50000</v>
       </c>
-      <c r="G51" s="192"/>
+      <c r="G51" s="152"/>
       <c r="K51" s="60"/>
       <c r="L51" s="60"/>
       <c r="M51" s="60"/>
@@ -13961,17 +13957,17 @@
       <c r="AT51" s="60"/>
     </row>
     <row r="52" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="211"/>
-      <c r="B52" s="193"/>
-      <c r="C52" s="190"/>
-      <c r="D52" s="169" t="s">
+      <c r="A52" s="190"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E52" s="170"/>
-      <c r="F52" s="192">
+      <c r="E52" s="147"/>
+      <c r="F52" s="152">
         <v>100000</v>
       </c>
-      <c r="G52" s="192"/>
+      <c r="G52" s="152"/>
       <c r="K52" s="60"/>
       <c r="L52" s="60"/>
       <c r="M52" s="60"/>
@@ -13980,33 +13976,33 @@
       <c r="AT52" s="60"/>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A53" s="211"/>
-      <c r="B53" s="193"/>
-      <c r="C53" s="190"/>
-      <c r="D53" s="203" t="s">
+      <c r="A53" s="190"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="204"/>
-      <c r="F53" s="205">
+      <c r="E53" s="183"/>
+      <c r="F53" s="196">
         <f t="shared" ref="F53" si="21">IFERROR(IF(OR(ISBLANK(F51),ISBLANK(F52),AND(F51=0,F52=0),F51&lt;=0),"****",F52/F51),"***")</f>
         <v>2</v>
       </c>
-      <c r="G53" s="205"/>
+      <c r="G53" s="196"/>
     </row>
     <row r="54" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="211"/>
-      <c r="B54" s="193"/>
-      <c r="C54" s="190" t="s">
+      <c r="A54" s="190"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="143" t="s">
         <v>307</v>
       </c>
-      <c r="D54" s="169" t="s">
+      <c r="D54" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E54" s="170"/>
-      <c r="F54" s="192">
+      <c r="E54" s="147"/>
+      <c r="F54" s="152">
         <v>250000</v>
       </c>
-      <c r="G54" s="192"/>
+      <c r="G54" s="152"/>
       <c r="K54" s="60"/>
       <c r="L54" s="60"/>
       <c r="M54" s="60"/>
@@ -14015,17 +14011,17 @@
       <c r="AT54" s="60"/>
     </row>
     <row r="55" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="211"/>
-      <c r="B55" s="193"/>
-      <c r="C55" s="190"/>
-      <c r="D55" s="169" t="s">
+      <c r="A55" s="190"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E55" s="170"/>
-      <c r="F55" s="192">
+      <c r="E55" s="147"/>
+      <c r="F55" s="152">
         <v>200000</v>
       </c>
-      <c r="G55" s="192"/>
+      <c r="G55" s="152"/>
       <c r="K55" s="60"/>
       <c r="L55" s="60"/>
       <c r="M55" s="60"/>
@@ -14034,23 +14030,23 @@
       <c r="AT55" s="60"/>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A56" s="211"/>
-      <c r="B56" s="193"/>
-      <c r="C56" s="190"/>
-      <c r="D56" s="203" t="s">
+      <c r="A56" s="190"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="204"/>
-      <c r="F56" s="205">
+      <c r="E56" s="183"/>
+      <c r="F56" s="196">
         <f t="shared" ref="F56" si="22">IFERROR(IF(OR(ISBLANK(F54),ISBLANK(F55),AND(F54=0,F55=0),F54&lt;=0),"****",F55/F54),"***")</f>
         <v>0.8</v>
       </c>
-      <c r="G56" s="205"/>
+      <c r="G56" s="196"/>
     </row>
     <row r="57" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="211"/>
-      <c r="B57" s="193"/>
-      <c r="C57" s="202" t="s">
+      <c r="A57" s="190"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="176" t="s">
         <v>231</v>
       </c>
       <c r="D57" s="140" t="s">
@@ -14059,11 +14055,11 @@
       <c r="E57" s="132">
         <v>0.85</v>
       </c>
-      <c r="F57" s="207">
+      <c r="F57" s="189">
         <f t="shared" ref="F57" si="23">IFERROR(IF(OR(ISBLANK(F48),ISBLANK(F49),ISBLANK(F51),ISBLANK(F52),ISBLANK(F54),ISBLANK(F55),AND(F48=0,F49=0,F51=0,F52=0,F54=0,F55=0),),"****",(F49+F52+F55)/(F48+F51+F54)),"***")</f>
         <v>1</v>
       </c>
-      <c r="G57" s="207"/>
+      <c r="G57" s="189"/>
       <c r="K57" s="57"/>
       <c r="L57" s="57"/>
       <c r="M57" s="57"/>
@@ -14081,20 +14077,20 @@
       <c r="AT57" s="57"/>
     </row>
     <row r="58" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="211"/>
-      <c r="B58" s="193"/>
-      <c r="C58" s="202"/>
+      <c r="A58" s="190"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="176"/>
       <c r="D58" s="140" t="s">
         <v>228</v>
       </c>
       <c r="E58" s="140">
         <v>2</v>
       </c>
-      <c r="F58" s="206">
+      <c r="F58" s="179">
         <f t="shared" ref="F58" si="24">IFERROR((IF(F49/F48&gt;=1,1,0)+IF(F52/F51&gt;=1,1,0)+IF(F55/F54&gt;=1,1,0)),"***")</f>
         <v>2</v>
       </c>
-      <c r="G58" s="206"/>
+      <c r="G58" s="179"/>
       <c r="K58" s="57"/>
       <c r="L58" s="57"/>
       <c r="M58" s="57"/>
@@ -14112,18 +14108,18 @@
       <c r="AT58" s="57"/>
     </row>
     <row r="59" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="211"/>
-      <c r="B59" s="193"/>
-      <c r="C59" s="202"/>
-      <c r="D59" s="176" t="s">
+      <c r="A59" s="190"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="176"/>
+      <c r="D59" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E59" s="177"/>
-      <c r="F59" s="201">
+      <c r="E59" s="193"/>
+      <c r="F59" s="181">
         <f t="shared" ref="F59" si="25">IFERROR(IF(OR(ISBLANK(F48),ISBLANK(F49),ISBLANK(F51),ISBLANK(F52),ISBLANK(F54),ISBLANK(F55),AND(F48=0,F49=0,F51=0,F52=0,F54=0,F55=0),OR(F49&lt;0,F52&lt;0,F55&lt;0)),"****",IF(AND(F57&gt;=$E$57,F58&gt;=$E$58),$B$48,0)),"****")</f>
         <v>0.3</v>
       </c>
-      <c r="G59" s="201"/>
+      <c r="G59" s="181"/>
       <c r="K59" s="57"/>
       <c r="L59" s="57"/>
       <c r="M59" s="57"/>
@@ -14141,23 +14137,23 @@
       <c r="AT59" s="57"/>
     </row>
     <row r="60" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="197" t="s">
+      <c r="A60" s="201" t="s">
         <v>225</v>
       </c>
-      <c r="B60" s="184">
+      <c r="B60" s="202">
         <v>0.15</v>
       </c>
-      <c r="C60" s="198" t="s">
+      <c r="C60" s="197" t="s">
         <v>309</v>
       </c>
-      <c r="D60" s="169" t="s">
+      <c r="D60" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E60" s="170"/>
-      <c r="F60" s="192">
+      <c r="E60" s="147"/>
+      <c r="F60" s="152">
         <v>250000</v>
       </c>
-      <c r="G60" s="192"/>
+      <c r="G60" s="152"/>
       <c r="K60" s="60"/>
       <c r="L60" s="60"/>
       <c r="M60" s="60"/>
@@ -14166,17 +14162,17 @@
       <c r="AT60" s="60"/>
     </row>
     <row r="61" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="197"/>
-      <c r="B61" s="184"/>
-      <c r="C61" s="198"/>
-      <c r="D61" s="169" t="s">
+      <c r="A61" s="201"/>
+      <c r="B61" s="202"/>
+      <c r="C61" s="197"/>
+      <c r="D61" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E61" s="170"/>
-      <c r="F61" s="178">
+      <c r="E61" s="147"/>
+      <c r="F61" s="198">
         <v>300000</v>
       </c>
-      <c r="G61" s="178"/>
+      <c r="G61" s="198"/>
       <c r="K61" s="60"/>
       <c r="L61" s="60"/>
       <c r="M61" s="60"/>
@@ -14185,18 +14181,18 @@
       <c r="AT61" s="60"/>
     </row>
     <row r="62" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="197"/>
-      <c r="B62" s="184"/>
-      <c r="C62" s="198"/>
-      <c r="D62" s="176" t="s">
+      <c r="A62" s="201"/>
+      <c r="B62" s="202"/>
+      <c r="C62" s="197"/>
+      <c r="D62" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="177"/>
-      <c r="F62" s="175">
+      <c r="E62" s="193"/>
+      <c r="F62" s="199">
         <f t="shared" ref="F62" si="26">IFERROR(IF(OR(ISBLANK(F60),ISBLANK(F61),AND(F60=0,F61=0),F60&lt;=0),"****",F61/F60),"***")</f>
         <v>1.2</v>
       </c>
-      <c r="G62" s="175"/>
+      <c r="G62" s="199"/>
       <c r="K62" s="57"/>
       <c r="L62" s="57"/>
       <c r="M62" s="57"/>
@@ -14214,18 +14210,18 @@
       <c r="AT62" s="57"/>
     </row>
     <row r="63" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="197"/>
-      <c r="B63" s="184"/>
-      <c r="C63" s="198"/>
-      <c r="D63" s="176" t="s">
+      <c r="A63" s="201"/>
+      <c r="B63" s="202"/>
+      <c r="C63" s="197"/>
+      <c r="D63" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E63" s="177"/>
-      <c r="F63" s="191">
+      <c r="E63" s="193"/>
+      <c r="F63" s="200">
         <f t="shared" ref="F63" si="27">IFERROR(IF(OR(ISBLANK(F60),ISBLANK(F61),AND(F60=0,F61=0),F60&lt;=0),"***",IF(F61-F60&gt;=0,$B$60,0)),"***")</f>
         <v>0.15</v>
       </c>
-      <c r="G63" s="191"/>
+      <c r="G63" s="200"/>
       <c r="K63" s="57"/>
       <c r="L63" s="57"/>
       <c r="M63" s="57"/>
@@ -14243,23 +14239,23 @@
       <c r="AT63" s="57"/>
     </row>
     <row r="64" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="183" t="s">
+      <c r="A64" s="141" t="s">
         <v>226</v>
       </c>
-      <c r="B64" s="184">
+      <c r="B64" s="202">
         <v>0.15</v>
       </c>
-      <c r="C64" s="198" t="s">
+      <c r="C64" s="197" t="s">
         <v>308</v>
       </c>
-      <c r="D64" s="169" t="s">
+      <c r="D64" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E64" s="170"/>
-      <c r="F64" s="192">
+      <c r="E64" s="147"/>
+      <c r="F64" s="152">
         <v>250000</v>
       </c>
-      <c r="G64" s="192"/>
+      <c r="G64" s="152"/>
       <c r="K64" s="60"/>
       <c r="L64" s="60"/>
       <c r="M64" s="60"/>
@@ -14268,17 +14264,17 @@
       <c r="AT64" s="60"/>
     </row>
     <row r="65" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="183"/>
-      <c r="B65" s="184"/>
-      <c r="C65" s="198"/>
-      <c r="D65" s="169" t="s">
+      <c r="A65" s="141"/>
+      <c r="B65" s="202"/>
+      <c r="C65" s="197"/>
+      <c r="D65" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E65" s="170"/>
-      <c r="F65" s="178">
+      <c r="E65" s="147"/>
+      <c r="F65" s="198">
         <v>300000</v>
       </c>
-      <c r="G65" s="178"/>
+      <c r="G65" s="198"/>
       <c r="K65" s="60"/>
       <c r="L65" s="60"/>
       <c r="M65" s="60"/>
@@ -14287,18 +14283,18 @@
       <c r="AT65" s="60"/>
     </row>
     <row r="66" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="183"/>
-      <c r="B66" s="184"/>
-      <c r="C66" s="198"/>
-      <c r="D66" s="176" t="s">
+      <c r="A66" s="141"/>
+      <c r="B66" s="202"/>
+      <c r="C66" s="197"/>
+      <c r="D66" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="177"/>
-      <c r="F66" s="175">
+      <c r="E66" s="193"/>
+      <c r="F66" s="199">
         <f t="shared" ref="F66" si="28">IFERROR(IF(OR(ISBLANK(F64),ISBLANK(F65),AND(F64=0,F65=0),F64&lt;=0),"****",F65/F64),"***")</f>
         <v>1.2</v>
       </c>
-      <c r="G66" s="175"/>
+      <c r="G66" s="199"/>
       <c r="K66" s="57"/>
       <c r="L66" s="57"/>
       <c r="M66" s="57"/>
@@ -14316,18 +14312,18 @@
       <c r="AT66" s="57"/>
     </row>
     <row r="67" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="183"/>
-      <c r="B67" s="184"/>
-      <c r="C67" s="198"/>
-      <c r="D67" s="176" t="s">
+      <c r="A67" s="141"/>
+      <c r="B67" s="202"/>
+      <c r="C67" s="197"/>
+      <c r="D67" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="177"/>
-      <c r="F67" s="191">
+      <c r="E67" s="193"/>
+      <c r="F67" s="200">
         <f t="shared" ref="F67" si="29">IFERROR(IF(OR(ISBLANK(F64),ISBLANK(F65),AND(F64=0,F65=0),F64&lt;=0),"***",IF(F65-F64&gt;=0,$B$64,0)),"***")</f>
         <v>0.15</v>
       </c>
-      <c r="G67" s="191"/>
+      <c r="G67" s="200"/>
       <c r="K67" s="57"/>
       <c r="L67" s="57"/>
       <c r="M67" s="57"/>
@@ -14345,23 +14341,23 @@
       <c r="AT67" s="57"/>
     </row>
     <row r="68" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="183" t="s">
+      <c r="A68" s="141" t="s">
         <v>229</v>
       </c>
-      <c r="B68" s="193">
+      <c r="B68" s="142">
         <v>0.1</v>
       </c>
-      <c r="C68" s="190" t="s">
+      <c r="C68" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="169" t="s">
+      <c r="D68" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E68" s="170"/>
-      <c r="F68" s="199">
+      <c r="E68" s="147"/>
+      <c r="F68" s="203">
         <v>330000</v>
       </c>
-      <c r="G68" s="200"/>
+      <c r="G68" s="204"/>
       <c r="K68" s="60"/>
       <c r="L68" s="60"/>
       <c r="M68" s="60"/>
@@ -14370,17 +14366,17 @@
       <c r="AT68" s="60"/>
     </row>
     <row r="69" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="183"/>
-      <c r="B69" s="193"/>
-      <c r="C69" s="190"/>
-      <c r="D69" s="169" t="s">
+      <c r="A69" s="141"/>
+      <c r="B69" s="142"/>
+      <c r="C69" s="143"/>
+      <c r="D69" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E69" s="170"/>
-      <c r="F69" s="192">
+      <c r="E69" s="147"/>
+      <c r="F69" s="152">
         <v>350000</v>
       </c>
-      <c r="G69" s="192"/>
+      <c r="G69" s="152"/>
       <c r="K69" s="60"/>
       <c r="L69" s="60"/>
       <c r="M69" s="60"/>
@@ -14389,18 +14385,18 @@
       <c r="AT69" s="60"/>
     </row>
     <row r="70" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="183"/>
-      <c r="B70" s="193"/>
-      <c r="C70" s="190"/>
-      <c r="D70" s="176" t="s">
+      <c r="A70" s="141"/>
+      <c r="B70" s="142"/>
+      <c r="C70" s="143"/>
+      <c r="D70" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="E70" s="177"/>
-      <c r="F70" s="175">
+      <c r="E70" s="193"/>
+      <c r="F70" s="199">
         <f t="shared" ref="F70" si="30">IFERROR(IF(OR(ISBLANK(F68),ISBLANK(F69),AND(F68=0,F69=0),F68&lt;=0),"****",F69/F68),"***")</f>
         <v>1.0606060606060606</v>
       </c>
-      <c r="G70" s="175"/>
+      <c r="G70" s="199"/>
       <c r="K70" s="57"/>
       <c r="L70" s="57"/>
       <c r="M70" s="57"/>
@@ -14418,18 +14414,18 @@
       <c r="AT70" s="57"/>
     </row>
     <row r="71" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="183"/>
-      <c r="B71" s="193"/>
-      <c r="C71" s="190"/>
-      <c r="D71" s="176" t="s">
+      <c r="A71" s="141"/>
+      <c r="B71" s="142"/>
+      <c r="C71" s="143"/>
+      <c r="D71" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="177"/>
-      <c r="F71" s="191">
+      <c r="E71" s="193"/>
+      <c r="F71" s="200">
         <f t="shared" ref="F71" si="31">IFERROR(IF(OR(ISBLANK(F68),ISBLANK(F69),AND(F68=0,F69=0),F68&lt;=0),"***",IF(F69-F68&gt;=0,$B$68,0)),"***")</f>
         <v>0.1</v>
       </c>
-      <c r="G71" s="191"/>
+      <c r="G71" s="200"/>
       <c r="K71" s="57"/>
       <c r="L71" s="57"/>
       <c r="M71" s="57"/>
@@ -14447,23 +14443,23 @@
       <c r="AT71" s="57"/>
     </row>
     <row r="72" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="183" t="s">
+      <c r="A72" s="141" t="s">
         <v>229</v>
       </c>
-      <c r="B72" s="193">
+      <c r="B72" s="142">
         <v>0.1</v>
       </c>
-      <c r="C72" s="190" t="s">
+      <c r="C72" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="169" t="s">
+      <c r="D72" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E72" s="170"/>
-      <c r="F72" s="196">
+      <c r="E72" s="147"/>
+      <c r="F72" s="205">
         <v>300000</v>
       </c>
-      <c r="G72" s="196"/>
+      <c r="G72" s="205"/>
       <c r="K72" s="60"/>
       <c r="L72" s="60"/>
       <c r="M72" s="60"/>
@@ -14472,17 +14468,17 @@
       <c r="AT72" s="60"/>
     </row>
     <row r="73" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="183"/>
-      <c r="B73" s="193"/>
-      <c r="C73" s="190"/>
-      <c r="D73" s="169" t="s">
+      <c r="A73" s="141"/>
+      <c r="B73" s="142"/>
+      <c r="C73" s="143"/>
+      <c r="D73" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E73" s="170"/>
-      <c r="F73" s="178">
+      <c r="E73" s="147"/>
+      <c r="F73" s="198">
         <v>400000</v>
       </c>
-      <c r="G73" s="178"/>
+      <c r="G73" s="198"/>
       <c r="K73" s="60"/>
       <c r="L73" s="60"/>
       <c r="M73" s="60"/>
@@ -14491,18 +14487,18 @@
       <c r="AT73" s="60"/>
     </row>
     <row r="74" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="183"/>
-      <c r="B74" s="193"/>
-      <c r="C74" s="190"/>
-      <c r="D74" s="176" t="s">
+      <c r="A74" s="141"/>
+      <c r="B74" s="142"/>
+      <c r="C74" s="143"/>
+      <c r="D74" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="177"/>
-      <c r="F74" s="175">
+      <c r="E74" s="193"/>
+      <c r="F74" s="199">
         <f t="shared" ref="F74" si="32">IFERROR(IF(OR(ISBLANK(F72),ISBLANK(F73),AND(F72=0,F73=0),F72&lt;=0),"****",F73/F72),"***")</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G74" s="175"/>
+      <c r="G74" s="199"/>
       <c r="K74" s="57"/>
       <c r="L74" s="57"/>
       <c r="M74" s="57"/>
@@ -14520,18 +14516,18 @@
       <c r="AT74" s="57"/>
     </row>
     <row r="75" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="183"/>
-      <c r="B75" s="193"/>
-      <c r="C75" s="190"/>
-      <c r="D75" s="176" t="s">
+      <c r="A75" s="141"/>
+      <c r="B75" s="142"/>
+      <c r="C75" s="143"/>
+      <c r="D75" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E75" s="177"/>
-      <c r="F75" s="191">
+      <c r="E75" s="193"/>
+      <c r="F75" s="200">
         <f t="shared" ref="F75" si="33">IFERROR(IF(OR(ISBLANK(F72),ISBLANK(F73),AND(F72=0,F73=0),F72&lt;=0),"***",IF(F73-F72&gt;=0,$B$72,0)),"***")</f>
         <v>0.1</v>
       </c>
-      <c r="G75" s="191"/>
+      <c r="G75" s="200"/>
       <c r="K75" s="57"/>
       <c r="L75" s="57"/>
       <c r="M75" s="57"/>
@@ -14549,23 +14545,23 @@
       <c r="AT75" s="57"/>
     </row>
     <row r="76" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="183" t="s">
+      <c r="A76" s="141" t="s">
         <v>229</v>
       </c>
-      <c r="B76" s="184">
+      <c r="B76" s="202">
         <v>0.1</v>
       </c>
-      <c r="C76" s="190" t="s">
+      <c r="C76" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="D76" s="169" t="s">
+      <c r="D76" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E76" s="170"/>
-      <c r="F76" s="194">
+      <c r="E76" s="147"/>
+      <c r="F76" s="153">
         <v>600000</v>
       </c>
-      <c r="G76" s="195"/>
+      <c r="G76" s="154"/>
       <c r="K76" s="60"/>
       <c r="L76" s="60"/>
       <c r="M76" s="60"/>
@@ -14574,17 +14570,17 @@
       <c r="AT76" s="60"/>
     </row>
     <row r="77" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="183"/>
-      <c r="B77" s="184"/>
-      <c r="C77" s="190"/>
-      <c r="D77" s="169" t="s">
+      <c r="A77" s="141"/>
+      <c r="B77" s="202"/>
+      <c r="C77" s="143"/>
+      <c r="D77" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E77" s="170"/>
-      <c r="F77" s="178">
+      <c r="E77" s="147"/>
+      <c r="F77" s="198">
         <v>700000</v>
       </c>
-      <c r="G77" s="178"/>
+      <c r="G77" s="198"/>
       <c r="K77" s="60"/>
       <c r="L77" s="60"/>
       <c r="M77" s="60"/>
@@ -14593,18 +14589,18 @@
       <c r="AT77" s="60"/>
     </row>
     <row r="78" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="183"/>
-      <c r="B78" s="184"/>
-      <c r="C78" s="190"/>
-      <c r="D78" s="176" t="s">
+      <c r="A78" s="141"/>
+      <c r="B78" s="202"/>
+      <c r="C78" s="143"/>
+      <c r="D78" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="177"/>
-      <c r="F78" s="175">
+      <c r="E78" s="193"/>
+      <c r="F78" s="199">
         <f t="shared" ref="F78" si="34">IFERROR(IF(OR(ISBLANK(F76),ISBLANK(F77),AND(F76=0,F77=0),F76&lt;=0),"****",F77/F76),"***")</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G78" s="175"/>
+      <c r="G78" s="199"/>
       <c r="K78" s="57"/>
       <c r="L78" s="57"/>
       <c r="M78" s="57"/>
@@ -14622,18 +14618,18 @@
       <c r="AT78" s="57"/>
     </row>
     <row r="79" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="183"/>
-      <c r="B79" s="184"/>
-      <c r="C79" s="190"/>
-      <c r="D79" s="176" t="s">
+      <c r="A79" s="141"/>
+      <c r="B79" s="202"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="177"/>
-      <c r="F79" s="191">
+      <c r="E79" s="193"/>
+      <c r="F79" s="200">
         <f t="shared" ref="F79" si="35">IFERROR(IF(OR(ISBLANK(F76),ISBLANK(F77),AND(F76=0,F77=0),F76&lt;=0),"***",IF(F77-F76&gt;=0,$B$76,0)),"***")</f>
         <v>0.1</v>
       </c>
-      <c r="G79" s="191"/>
+      <c r="G79" s="200"/>
       <c r="K79" s="57"/>
       <c r="L79" s="57"/>
       <c r="M79" s="57"/>
@@ -14651,23 +14647,23 @@
       <c r="AT79" s="57"/>
     </row>
     <row r="80" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="183" t="s">
+      <c r="A80" s="141" t="s">
         <v>229</v>
       </c>
-      <c r="B80" s="184">
+      <c r="B80" s="202">
         <v>0.1</v>
       </c>
-      <c r="C80" s="190" t="s">
+      <c r="C80" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="169" t="s">
+      <c r="D80" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E80" s="170"/>
-      <c r="F80" s="192">
+      <c r="E80" s="147"/>
+      <c r="F80" s="152">
         <v>50000</v>
       </c>
-      <c r="G80" s="192"/>
+      <c r="G80" s="152"/>
       <c r="K80" s="60"/>
       <c r="L80" s="60"/>
       <c r="M80" s="60"/>
@@ -14676,17 +14672,17 @@
       <c r="AT80" s="60"/>
     </row>
     <row r="81" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="183"/>
-      <c r="B81" s="184"/>
-      <c r="C81" s="190"/>
-      <c r="D81" s="169" t="s">
+      <c r="A81" s="141"/>
+      <c r="B81" s="202"/>
+      <c r="C81" s="143"/>
+      <c r="D81" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E81" s="170"/>
-      <c r="F81" s="192">
+      <c r="E81" s="147"/>
+      <c r="F81" s="152">
         <v>100000</v>
       </c>
-      <c r="G81" s="192"/>
+      <c r="G81" s="152"/>
       <c r="K81" s="60"/>
       <c r="L81" s="60"/>
       <c r="M81" s="60"/>
@@ -14695,18 +14691,18 @@
       <c r="AT81" s="60"/>
     </row>
     <row r="82" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="183"/>
-      <c r="B82" s="184"/>
-      <c r="C82" s="190"/>
-      <c r="D82" s="176" t="s">
+      <c r="A82" s="141"/>
+      <c r="B82" s="202"/>
+      <c r="C82" s="143"/>
+      <c r="D82" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="E82" s="177"/>
-      <c r="F82" s="175">
+      <c r="E82" s="193"/>
+      <c r="F82" s="199">
         <f t="shared" ref="F82" si="36">IFERROR(IF(OR(ISBLANK(F80),ISBLANK(F81),AND(F80=0,F81=0),F80&lt;=0),"****",F81/F80),"***")</f>
         <v>2</v>
       </c>
-      <c r="G82" s="175"/>
+      <c r="G82" s="199"/>
       <c r="K82" s="57"/>
       <c r="L82" s="57"/>
       <c r="M82" s="57"/>
@@ -14724,18 +14720,18 @@
       <c r="AT82" s="57"/>
     </row>
     <row r="83" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="183"/>
-      <c r="B83" s="184"/>
-      <c r="C83" s="190"/>
-      <c r="D83" s="176" t="s">
+      <c r="A83" s="141"/>
+      <c r="B83" s="202"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E83" s="177"/>
-      <c r="F83" s="191">
+      <c r="E83" s="193"/>
+      <c r="F83" s="200">
         <f t="shared" ref="F83" si="37">IFERROR(IF(OR(ISBLANK(F80),ISBLANK(F81),AND(F80=0,F81=0),F80&lt;=0),"***",IF(F81-F80&gt;=0,$B$80,0)),"***")</f>
         <v>0.1</v>
       </c>
-      <c r="G83" s="191"/>
+      <c r="G83" s="200"/>
       <c r="K83" s="57"/>
       <c r="L83" s="57"/>
       <c r="M83" s="57"/>
@@ -14753,23 +14749,23 @@
       <c r="AT83" s="57"/>
     </row>
     <row r="84" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="183" t="s">
+      <c r="A84" s="141" t="s">
         <v>229</v>
       </c>
-      <c r="B84" s="184">
+      <c r="B84" s="202">
         <v>0.1</v>
       </c>
-      <c r="C84" s="185" t="s">
+      <c r="C84" s="224" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="169" t="s">
+      <c r="D84" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="E84" s="170"/>
-      <c r="F84" s="171">
+      <c r="E84" s="147"/>
+      <c r="F84" s="206">
         <v>1720000</v>
       </c>
-      <c r="G84" s="172"/>
+      <c r="G84" s="207"/>
       <c r="K84" s="60"/>
       <c r="L84" s="60"/>
       <c r="M84" s="60"/>
@@ -14778,17 +14774,17 @@
       <c r="AT84" s="60"/>
     </row>
     <row r="85" spans="1:46" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="183"/>
-      <c r="B85" s="184"/>
-      <c r="C85" s="186"/>
-      <c r="D85" s="169" t="s">
+      <c r="A85" s="141"/>
+      <c r="B85" s="202"/>
+      <c r="C85" s="225"/>
+      <c r="D85" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="E85" s="170"/>
-      <c r="F85" s="178">
+      <c r="E85" s="147"/>
+      <c r="F85" s="198">
         <v>2885000</v>
       </c>
-      <c r="G85" s="178"/>
+      <c r="G85" s="198"/>
       <c r="K85" s="60"/>
       <c r="L85" s="60"/>
       <c r="M85" s="60"/>
@@ -14797,18 +14793,18 @@
       <c r="AT85" s="60"/>
     </row>
     <row r="86" spans="1:46" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="183"/>
-      <c r="B86" s="184"/>
-      <c r="C86" s="186"/>
-      <c r="D86" s="176" t="s">
+      <c r="A86" s="141"/>
+      <c r="B86" s="202"/>
+      <c r="C86" s="225"/>
+      <c r="D86" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="E86" s="177"/>
-      <c r="F86" s="175">
+      <c r="E86" s="193"/>
+      <c r="F86" s="199">
         <f t="shared" ref="F86" si="38">IFERROR(IF(OR(ISBLANK(F84),ISBLANK(F85),AND(F84=0,F85=0),F84&lt;=0),"****",F85/F84),"***")</f>
         <v>1.6773255813953489</v>
       </c>
-      <c r="G86" s="175"/>
+      <c r="G86" s="199"/>
       <c r="K86" s="57"/>
       <c r="L86" s="57"/>
       <c r="M86" s="57"/>
@@ -14826,18 +14822,18 @@
       <c r="AT86" s="57"/>
     </row>
     <row r="87" spans="1:46" s="55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="183"/>
-      <c r="B87" s="184"/>
-      <c r="C87" s="187"/>
-      <c r="D87" s="173" t="s">
+      <c r="A87" s="141"/>
+      <c r="B87" s="202"/>
+      <c r="C87" s="226"/>
+      <c r="D87" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="E87" s="174"/>
-      <c r="F87" s="180">
+      <c r="E87" s="209"/>
+      <c r="F87" s="221">
         <f t="shared" ref="F87" si="39">IFERROR(IF(OR(ISBLANK(F84),ISBLANK(F85),AND(F84=0,F85=0),F84&lt;=0),"***",IF(F85-F84&gt;=0,$B$84,0)),"***")</f>
         <v>0.1</v>
       </c>
-      <c r="G87" s="180"/>
+      <c r="G87" s="221"/>
       <c r="K87" s="57"/>
       <c r="L87" s="57"/>
       <c r="M87" s="57"/>
@@ -14881,19 +14877,19 @@
       <c r="AT88" s="82"/>
     </row>
     <row r="89" spans="1:46" s="87" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="141" t="s">
+      <c r="A89" s="210" t="s">
         <v>236</v>
       </c>
-      <c r="B89" s="142"/>
-      <c r="C89" s="143"/>
-      <c r="D89" s="179" t="s">
+      <c r="B89" s="211"/>
+      <c r="C89" s="212"/>
+      <c r="D89" s="219" t="s">
         <v>326</v>
       </c>
-      <c r="E89" s="179"/>
-      <c r="F89" s="181" t="s">
+      <c r="E89" s="219"/>
+      <c r="F89" s="222" t="s">
         <v>299</v>
       </c>
-      <c r="G89" s="182"/>
+      <c r="G89" s="223"/>
       <c r="K89" s="88"/>
       <c r="L89" s="88"/>
       <c r="M89" s="88"/>
@@ -14911,17 +14907,17 @@
       <c r="AT89" s="88"/>
     </row>
     <row r="90" spans="1:46" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="144"/>
-      <c r="B90" s="145"/>
-      <c r="C90" s="146"/>
-      <c r="D90" s="151" t="s">
+      <c r="A90" s="213"/>
+      <c r="B90" s="214"/>
+      <c r="C90" s="215"/>
+      <c r="D90" s="220" t="s">
         <v>327</v>
       </c>
-      <c r="E90" s="151"/>
-      <c r="F90" s="188" t="s">
+      <c r="E90" s="220"/>
+      <c r="F90" s="230" t="s">
         <v>299</v>
       </c>
-      <c r="G90" s="189"/>
+      <c r="G90" s="231"/>
       <c r="K90" s="88"/>
       <c r="L90" s="88"/>
       <c r="M90" s="88"/>
@@ -14939,18 +14935,18 @@
       <c r="AT90" s="88"/>
     </row>
     <row r="91" spans="1:46" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="147"/>
-      <c r="B91" s="148"/>
-      <c r="C91" s="149"/>
-      <c r="D91" s="156" t="s">
+      <c r="A91" s="216"/>
+      <c r="B91" s="217"/>
+      <c r="C91" s="218"/>
+      <c r="D91" s="229" t="s">
         <v>237</v>
       </c>
-      <c r="E91" s="156"/>
-      <c r="F91" s="152">
+      <c r="E91" s="229"/>
+      <c r="F91" s="227">
         <f>IFERROR(IF(OR(ISBLANK(F89),ISBLANK(F90),AND(F89=0,F90=0)),"****",IF(F89=F90,1,0)),"***")</f>
         <v>1</v>
       </c>
-      <c r="G91" s="153"/>
+      <c r="G91" s="228"/>
       <c r="K91" s="91"/>
       <c r="L91" s="91"/>
       <c r="M91" s="91"/>
@@ -14968,19 +14964,19 @@
       <c r="AT91" s="91"/>
     </row>
     <row r="92" spans="1:46" s="93" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="141" t="s">
+      <c r="A92" s="210" t="s">
         <v>294</v>
       </c>
-      <c r="B92" s="142"/>
-      <c r="C92" s="143"/>
-      <c r="D92" s="164" t="s">
+      <c r="B92" s="211"/>
+      <c r="C92" s="212"/>
+      <c r="D92" s="232" t="s">
         <v>326</v>
       </c>
-      <c r="E92" s="164"/>
-      <c r="F92" s="167" t="s">
+      <c r="E92" s="232"/>
+      <c r="F92" s="241" t="s">
         <v>310</v>
       </c>
-      <c r="G92" s="168"/>
+      <c r="G92" s="242"/>
       <c r="K92" s="94"/>
       <c r="L92" s="94"/>
       <c r="M92" s="94"/>
@@ -14998,17 +14994,17 @@
       <c r="AT92" s="94"/>
     </row>
     <row r="93" spans="1:46" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="144"/>
-      <c r="B93" s="145"/>
-      <c r="C93" s="146"/>
-      <c r="D93" s="151" t="s">
+      <c r="A93" s="213"/>
+      <c r="B93" s="214"/>
+      <c r="C93" s="215"/>
+      <c r="D93" s="220" t="s">
         <v>327</v>
       </c>
-      <c r="E93" s="151"/>
-      <c r="F93" s="160" t="s">
+      <c r="E93" s="220"/>
+      <c r="F93" s="237" t="s">
         <v>310</v>
       </c>
-      <c r="G93" s="161"/>
+      <c r="G93" s="238"/>
       <c r="K93" s="88"/>
       <c r="L93" s="88"/>
       <c r="M93" s="88"/>
@@ -15026,18 +15022,18 @@
       <c r="AT93" s="88"/>
     </row>
     <row r="94" spans="1:46" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="147"/>
-      <c r="B94" s="148"/>
-      <c r="C94" s="149"/>
-      <c r="D94" s="156" t="s">
+      <c r="A94" s="216"/>
+      <c r="B94" s="217"/>
+      <c r="C94" s="218"/>
+      <c r="D94" s="229" t="s">
         <v>237</v>
       </c>
-      <c r="E94" s="156"/>
-      <c r="F94" s="152">
+      <c r="E94" s="229"/>
+      <c r="F94" s="227">
         <f t="shared" ref="F94" si="40">IFERROR(IF(OR(ISBLANK(F92),ISBLANK(F93),AND(F92=0,F93=0)),"****",IF(F92=F93,1,0)),"***")</f>
         <v>1</v>
       </c>
-      <c r="G94" s="153"/>
+      <c r="G94" s="228"/>
       <c r="K94" s="91"/>
       <c r="L94" s="91"/>
       <c r="M94" s="91"/>
@@ -15055,19 +15051,19 @@
       <c r="AT94" s="91"/>
     </row>
     <row r="95" spans="1:46" s="87" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="141" t="s">
+      <c r="A95" s="210" t="s">
         <v>296</v>
       </c>
-      <c r="B95" s="142"/>
-      <c r="C95" s="143"/>
-      <c r="D95" s="164" t="s">
+      <c r="B95" s="211"/>
+      <c r="C95" s="212"/>
+      <c r="D95" s="232" t="s">
         <v>326</v>
       </c>
-      <c r="E95" s="164"/>
-      <c r="F95" s="154" t="s">
+      <c r="E95" s="232"/>
+      <c r="F95" s="233" t="s">
         <v>324</v>
       </c>
-      <c r="G95" s="155"/>
+      <c r="G95" s="234"/>
       <c r="K95" s="88"/>
       <c r="L95" s="88"/>
       <c r="M95" s="88"/>
@@ -15085,17 +15081,17 @@
       <c r="AT95" s="88"/>
     </row>
     <row r="96" spans="1:46" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="144"/>
-      <c r="B96" s="145"/>
-      <c r="C96" s="146"/>
-      <c r="D96" s="151" t="s">
+      <c r="A96" s="213"/>
+      <c r="B96" s="214"/>
+      <c r="C96" s="215"/>
+      <c r="D96" s="220" t="s">
         <v>327</v>
       </c>
-      <c r="E96" s="151"/>
-      <c r="F96" s="268">
+      <c r="E96" s="220"/>
+      <c r="F96" s="235">
         <v>5</v>
       </c>
-      <c r="G96" s="269"/>
+      <c r="G96" s="236"/>
       <c r="K96" s="88"/>
       <c r="L96" s="88"/>
       <c r="M96" s="88"/>
@@ -15113,18 +15109,18 @@
       <c r="AT96" s="88"/>
     </row>
     <row r="97" spans="1:46" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="147"/>
-      <c r="B97" s="148"/>
-      <c r="C97" s="149"/>
-      <c r="D97" s="156" t="s">
+      <c r="A97" s="216"/>
+      <c r="B97" s="217"/>
+      <c r="C97" s="218"/>
+      <c r="D97" s="229" t="s">
         <v>237</v>
       </c>
-      <c r="E97" s="156"/>
-      <c r="F97" s="152">
+      <c r="E97" s="229"/>
+      <c r="F97" s="227">
         <f>IFERROR(IF(OR(ISBLANK(F95),ISBLANK(F96),AND(F95=0,F96=0)),"****",IF(F95=F96,1,0)),"***")</f>
         <v>0</v>
       </c>
-      <c r="G97" s="153"/>
+      <c r="G97" s="228"/>
       <c r="K97" s="91"/>
       <c r="L97" s="91"/>
       <c r="M97" s="91"/>
@@ -15142,19 +15138,19 @@
       <c r="AT97" s="91"/>
     </row>
     <row r="98" spans="1:46" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="141" t="s">
+      <c r="A98" s="210" t="s">
         <v>295</v>
       </c>
-      <c r="B98" s="142"/>
-      <c r="C98" s="143"/>
-      <c r="D98" s="164" t="s">
+      <c r="B98" s="211"/>
+      <c r="C98" s="212"/>
+      <c r="D98" s="232" t="s">
         <v>326</v>
       </c>
-      <c r="E98" s="164"/>
-      <c r="F98" s="165" t="s">
+      <c r="E98" s="232"/>
+      <c r="F98" s="239" t="s">
         <v>311</v>
       </c>
-      <c r="G98" s="166"/>
+      <c r="G98" s="240"/>
       <c r="T98" s="100"/>
       <c r="U98" s="100"/>
       <c r="V98" s="100"/>
@@ -15166,17 +15162,17 @@
       <c r="AB98" s="100"/>
     </row>
     <row r="99" spans="1:46" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="144"/>
-      <c r="B99" s="145"/>
-      <c r="C99" s="146"/>
-      <c r="D99" s="151" t="s">
+      <c r="A99" s="213"/>
+      <c r="B99" s="214"/>
+      <c r="C99" s="215"/>
+      <c r="D99" s="220" t="s">
         <v>327</v>
       </c>
-      <c r="E99" s="151"/>
-      <c r="F99" s="160">
+      <c r="E99" s="220"/>
+      <c r="F99" s="237">
         <v>5</v>
       </c>
-      <c r="G99" s="161"/>
+      <c r="G99" s="238"/>
       <c r="K99" s="88"/>
       <c r="L99" s="88"/>
       <c r="M99" s="88"/>
@@ -15194,18 +15190,18 @@
       <c r="AT99" s="88"/>
     </row>
     <row r="100" spans="1:46" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="147"/>
-      <c r="B100" s="148"/>
-      <c r="C100" s="149"/>
-      <c r="D100" s="156" t="s">
+      <c r="A100" s="216"/>
+      <c r="B100" s="217"/>
+      <c r="C100" s="218"/>
+      <c r="D100" s="229" t="s">
         <v>237</v>
       </c>
-      <c r="E100" s="156"/>
-      <c r="F100" s="152">
+      <c r="E100" s="229"/>
+      <c r="F100" s="227">
         <f t="shared" ref="F100" si="41">IFERROR(IF(OR(ISBLANK(F98),ISBLANK(F99),AND(F98=0,F99=0)),"****",IF(F98=F99,1,0)),"***")</f>
         <v>0</v>
       </c>
-      <c r="G100" s="153"/>
+      <c r="G100" s="228"/>
       <c r="K100" s="91"/>
       <c r="L100" s="91"/>
       <c r="M100" s="91"/>
@@ -15223,19 +15219,19 @@
       <c r="AT100" s="91"/>
     </row>
     <row r="101" spans="1:46" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="141" t="s">
+      <c r="A101" s="210" t="s">
         <v>297</v>
       </c>
-      <c r="B101" s="142"/>
-      <c r="C101" s="143"/>
-      <c r="D101" s="150" t="s">
+      <c r="B101" s="211"/>
+      <c r="C101" s="212"/>
+      <c r="D101" s="243" t="s">
         <v>326</v>
       </c>
-      <c r="E101" s="150"/>
-      <c r="F101" s="154" t="s">
+      <c r="E101" s="243"/>
+      <c r="F101" s="233" t="s">
         <v>300</v>
       </c>
-      <c r="G101" s="155"/>
+      <c r="G101" s="234"/>
       <c r="T101" s="100"/>
       <c r="U101" s="100"/>
       <c r="V101" s="100"/>
@@ -15247,17 +15243,17 @@
       <c r="AB101" s="100"/>
     </row>
     <row r="102" spans="1:46" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="144"/>
-      <c r="B102" s="145"/>
-      <c r="C102" s="146"/>
-      <c r="D102" s="151" t="s">
+      <c r="A102" s="213"/>
+      <c r="B102" s="214"/>
+      <c r="C102" s="215"/>
+      <c r="D102" s="220" t="s">
         <v>327</v>
       </c>
-      <c r="E102" s="151"/>
-      <c r="F102" s="157">
+      <c r="E102" s="220"/>
+      <c r="F102" s="244">
         <v>5</v>
       </c>
-      <c r="G102" s="158"/>
+      <c r="G102" s="245"/>
       <c r="K102" s="88"/>
       <c r="L102" s="88"/>
       <c r="M102" s="88"/>
@@ -15275,18 +15271,18 @@
       <c r="AT102" s="88"/>
     </row>
     <row r="103" spans="1:46" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="147"/>
-      <c r="B103" s="148"/>
-      <c r="C103" s="149"/>
-      <c r="D103" s="156" t="s">
+      <c r="A103" s="216"/>
+      <c r="B103" s="217"/>
+      <c r="C103" s="218"/>
+      <c r="D103" s="229" t="s">
         <v>237</v>
       </c>
-      <c r="E103" s="156"/>
-      <c r="F103" s="152">
+      <c r="E103" s="229"/>
+      <c r="F103" s="227">
         <f t="shared" ref="F103" si="42">IFERROR(IF(OR(ISBLANK(F101),ISBLANK(F102),AND(F101=0,F102=0)),"****",IF(F101=F102,1,0)),"***")</f>
         <v>0</v>
       </c>
-      <c r="G103" s="153"/>
+      <c r="G103" s="228"/>
       <c r="K103" s="91"/>
       <c r="L103" s="91"/>
       <c r="M103" s="91"/>
@@ -15304,19 +15300,19 @@
       <c r="AT103" s="91"/>
     </row>
     <row r="104" spans="1:46" s="87" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="141" t="s">
+      <c r="A104" s="210" t="s">
         <v>302</v>
       </c>
-      <c r="B104" s="142"/>
-      <c r="C104" s="143"/>
-      <c r="D104" s="151" t="s">
+      <c r="B104" s="211"/>
+      <c r="C104" s="212"/>
+      <c r="D104" s="220" t="s">
         <v>326</v>
       </c>
-      <c r="E104" s="151"/>
-      <c r="F104" s="154" t="s">
+      <c r="E104" s="220"/>
+      <c r="F104" s="233" t="s">
         <v>305</v>
       </c>
-      <c r="G104" s="155"/>
+      <c r="G104" s="234"/>
       <c r="K104" s="88"/>
       <c r="L104" s="88"/>
       <c r="M104" s="88"/>
@@ -15334,17 +15330,17 @@
       <c r="AT104" s="88"/>
     </row>
     <row r="105" spans="1:46" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="144"/>
-      <c r="B105" s="145"/>
-      <c r="C105" s="146"/>
-      <c r="D105" s="151" t="s">
+      <c r="A105" s="213"/>
+      <c r="B105" s="214"/>
+      <c r="C105" s="215"/>
+      <c r="D105" s="220" t="s">
         <v>327</v>
       </c>
-      <c r="E105" s="151"/>
-      <c r="F105" s="160">
+      <c r="E105" s="220"/>
+      <c r="F105" s="237">
         <v>5</v>
       </c>
-      <c r="G105" s="161"/>
+      <c r="G105" s="238"/>
       <c r="K105" s="88"/>
       <c r="L105" s="88"/>
       <c r="M105" s="88"/>
@@ -15362,18 +15358,18 @@
       <c r="AT105" s="88"/>
     </row>
     <row r="106" spans="1:46" s="96" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="147"/>
-      <c r="B106" s="148"/>
-      <c r="C106" s="149"/>
-      <c r="D106" s="159" t="s">
+      <c r="A106" s="216"/>
+      <c r="B106" s="217"/>
+      <c r="C106" s="218"/>
+      <c r="D106" s="246" t="s">
         <v>237</v>
       </c>
-      <c r="E106" s="159"/>
-      <c r="F106" s="162">
+      <c r="E106" s="246"/>
+      <c r="F106" s="247">
         <f t="shared" ref="F106" si="43">IFERROR(IF(OR(ISBLANK(F104),ISBLANK(F105),AND(F104=0,F105=0)),"****",IF(F104=F105,1,0)),"***")</f>
         <v>0</v>
       </c>
-      <c r="G106" s="163"/>
+      <c r="G106" s="248"/>
       <c r="K106" s="97"/>
       <c r="L106" s="97"/>
       <c r="M106" s="97"/>
@@ -15393,6 +15389,228 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="246">
+    <mergeCell ref="A101:C103"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="A104:C106"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="A95:C97"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="A98:C100"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="A92:C94"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="A89:C91"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="A48:A59"/>
+    <mergeCell ref="B48:B59"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="B33:B47"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="A11:A32"/>
     <mergeCell ref="B11:B32"/>
     <mergeCell ref="C11:C13"/>
@@ -15417,228 +15635,6 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A33:A47"/>
-    <mergeCell ref="B33:B47"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="B48:B59"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="A89:C91"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="A95:C97"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="A98:C100"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="A92:C94"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="A101:C103"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="A104:C106"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F106:G106"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:G6">
     <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
@@ -15743,14 +15739,14 @@
   <sheetData>
     <row r="1" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20"/>
-      <c r="B1" s="262" t="s">
+      <c r="B1" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="263"/>
-      <c r="D1" s="264" t="s">
+      <c r="C1" s="253"/>
+      <c r="D1" s="254" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="265" t="s">
+      <c r="E1" s="255" t="s">
         <v>11</v>
       </c>
     </row>
@@ -15762,8 +15758,8 @@
       <c r="C2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="264"/>
-      <c r="E2" s="265"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="255"/>
     </row>
     <row r="3" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
@@ -15805,11 +15801,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="253"/>
-      <c r="B6" s="255">
+      <c r="A6" s="249"/>
+      <c r="B6" s="257">
         <v>44652</v>
       </c>
-      <c r="C6" s="255">
+      <c r="C6" s="257">
         <v>44742</v>
       </c>
       <c r="D6" s="256" t="s">
@@ -15820,15 +15816,15 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="254"/>
-      <c r="B7" s="255"/>
+      <c r="A7" s="250"/>
+      <c r="B7" s="257"/>
       <c r="C7" s="256"/>
       <c r="D7" s="256"/>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="254"/>
-      <c r="B8" s="255"/>
+      <c r="A8" s="250"/>
+      <c r="B8" s="257"/>
       <c r="C8" s="256"/>
       <c r="D8" s="256"/>
       <c r="E8" s="27" t="s">
@@ -15836,8 +15832,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="254"/>
-      <c r="B9" s="255"/>
+      <c r="A9" s="250"/>
+      <c r="B9" s="257"/>
       <c r="C9" s="256"/>
       <c r="D9" s="256"/>
       <c r="E9" s="27" t="s">
@@ -15845,8 +15841,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="254"/>
-      <c r="B10" s="255"/>
+      <c r="A10" s="250"/>
+      <c r="B10" s="257"/>
       <c r="C10" s="256"/>
       <c r="D10" s="256"/>
       <c r="E10" s="28" t="s">
@@ -15854,8 +15850,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="254"/>
-      <c r="B11" s="255"/>
+      <c r="A11" s="250"/>
+      <c r="B11" s="257"/>
       <c r="C11" s="256"/>
       <c r="D11" s="256"/>
       <c r="E11" s="28" t="s">
@@ -15863,8 +15859,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="254"/>
-      <c r="B12" s="255"/>
+      <c r="A12" s="250"/>
+      <c r="B12" s="257"/>
       <c r="C12" s="256"/>
       <c r="D12" s="256"/>
       <c r="E12" s="28" t="s">
@@ -15872,8 +15868,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="254"/>
-      <c r="B13" s="255"/>
+      <c r="A13" s="250"/>
+      <c r="B13" s="257"/>
       <c r="C13" s="256"/>
       <c r="D13" s="256"/>
       <c r="E13" s="28" t="s">
@@ -15881,8 +15877,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="254"/>
-      <c r="B14" s="255"/>
+      <c r="A14" s="250"/>
+      <c r="B14" s="257"/>
       <c r="C14" s="256"/>
       <c r="D14" s="256"/>
       <c r="E14" s="28" t="s">
@@ -15890,8 +15886,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="254"/>
-      <c r="B15" s="255"/>
+      <c r="A15" s="250"/>
+      <c r="B15" s="257"/>
       <c r="C15" s="256"/>
       <c r="D15" s="256"/>
       <c r="E15" s="28" t="s">
@@ -15899,8 +15895,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="254"/>
-      <c r="B16" s="255"/>
+      <c r="A16" s="250"/>
+      <c r="B16" s="257"/>
       <c r="C16" s="256"/>
       <c r="D16" s="256"/>
       <c r="E16" s="27" t="s">
@@ -15908,8 +15904,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="254"/>
-      <c r="B17" s="255"/>
+      <c r="A17" s="250"/>
+      <c r="B17" s="257"/>
       <c r="C17" s="256"/>
       <c r="D17" s="256"/>
       <c r="E17" s="28" t="s">
@@ -15917,8 +15913,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="254"/>
-      <c r="B18" s="255"/>
+      <c r="A18" s="250"/>
+      <c r="B18" s="257"/>
       <c r="C18" s="256"/>
       <c r="D18" s="256"/>
       <c r="E18" s="28" t="s">
@@ -15926,8 +15922,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="254"/>
-      <c r="B19" s="255"/>
+      <c r="A19" s="250"/>
+      <c r="B19" s="257"/>
       <c r="C19" s="256"/>
       <c r="D19" s="256"/>
       <c r="E19" s="34" t="s">
@@ -15935,8 +15931,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="254"/>
-      <c r="B20" s="255"/>
+      <c r="A20" s="250"/>
+      <c r="B20" s="257"/>
       <c r="C20" s="256"/>
       <c r="D20" s="256"/>
       <c r="E20" s="28" t="s">
@@ -15944,8 +15940,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="254"/>
-      <c r="B21" s="255"/>
+      <c r="A21" s="250"/>
+      <c r="B21" s="257"/>
       <c r="C21" s="256"/>
       <c r="D21" s="256"/>
       <c r="E21" s="34" t="s">
@@ -15953,8 +15949,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="254"/>
-      <c r="B22" s="255"/>
+      <c r="A22" s="250"/>
+      <c r="B22" s="257"/>
       <c r="C22" s="256"/>
       <c r="D22" s="256"/>
       <c r="E22" s="34" t="s">
@@ -15962,8 +15958,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="254"/>
-      <c r="B23" s="255"/>
+      <c r="A23" s="250"/>
+      <c r="B23" s="257"/>
       <c r="C23" s="256"/>
       <c r="D23" s="256"/>
       <c r="E23" s="34" t="s">
@@ -15971,8 +15967,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="254"/>
-      <c r="B24" s="255"/>
+      <c r="A24" s="250"/>
+      <c r="B24" s="257"/>
       <c r="C24" s="256"/>
       <c r="D24" s="256"/>
       <c r="E24" s="34" t="s">
@@ -15980,8 +15976,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="254"/>
-      <c r="B25" s="255"/>
+      <c r="A25" s="250"/>
+      <c r="B25" s="257"/>
       <c r="C25" s="256"/>
       <c r="D25" s="256"/>
       <c r="E25" s="27" t="s">
@@ -15989,8 +15985,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="254"/>
-      <c r="B26" s="255"/>
+      <c r="A26" s="250"/>
+      <c r="B26" s="257"/>
       <c r="C26" s="256"/>
       <c r="D26" s="256"/>
       <c r="E26" s="27" t="s">
@@ -15998,8 +15994,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="254"/>
-      <c r="B27" s="255"/>
+      <c r="A27" s="250"/>
+      <c r="B27" s="257"/>
       <c r="C27" s="256"/>
       <c r="D27" s="256"/>
       <c r="E27" s="34" t="s">
@@ -16007,8 +16003,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="254"/>
-      <c r="B28" s="255"/>
+      <c r="A28" s="250"/>
+      <c r="B28" s="257"/>
       <c r="C28" s="256"/>
       <c r="D28" s="256"/>
       <c r="E28" s="34" t="s">
@@ -16016,8 +16012,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="254"/>
-      <c r="B29" s="255"/>
+      <c r="A29" s="250"/>
+      <c r="B29" s="257"/>
       <c r="C29" s="256"/>
       <c r="D29" s="256"/>
       <c r="E29" s="34" t="s">
@@ -16025,8 +16021,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="254"/>
-      <c r="B30" s="255"/>
+      <c r="A30" s="250"/>
+      <c r="B30" s="257"/>
       <c r="C30" s="256"/>
       <c r="D30" s="256"/>
       <c r="E30" s="28" t="s">
@@ -16034,8 +16030,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="254"/>
-      <c r="B31" s="255"/>
+      <c r="A31" s="250"/>
+      <c r="B31" s="257"/>
       <c r="C31" s="256"/>
       <c r="D31" s="256"/>
       <c r="E31" s="34" t="s">
@@ -16043,8 +16039,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="254"/>
-      <c r="B32" s="255"/>
+      <c r="A32" s="250"/>
+      <c r="B32" s="257"/>
       <c r="C32" s="256"/>
       <c r="D32" s="256"/>
       <c r="E32" s="34" t="s">
@@ -16052,8 +16048,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="254"/>
-      <c r="B33" s="255"/>
+      <c r="A33" s="250"/>
+      <c r="B33" s="257"/>
       <c r="C33" s="256"/>
       <c r="D33" s="256"/>
       <c r="E33" s="28" t="s">
@@ -16061,8 +16057,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="254"/>
-      <c r="B34" s="255"/>
+      <c r="A34" s="250"/>
+      <c r="B34" s="257"/>
       <c r="C34" s="256"/>
       <c r="D34" s="256"/>
       <c r="E34" s="28" t="s">
@@ -16070,8 +16066,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="254"/>
-      <c r="B35" s="255"/>
+      <c r="A35" s="250"/>
+      <c r="B35" s="257"/>
       <c r="C35" s="256"/>
       <c r="D35" s="256"/>
       <c r="E35" s="27" t="s">
@@ -16079,8 +16075,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="254"/>
-      <c r="B36" s="255"/>
+      <c r="A36" s="250"/>
+      <c r="B36" s="257"/>
       <c r="C36" s="256"/>
       <c r="D36" s="256"/>
       <c r="E36" s="28" t="s">
@@ -16088,8 +16084,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="254"/>
-      <c r="B37" s="255"/>
+      <c r="A37" s="250"/>
+      <c r="B37" s="257"/>
       <c r="C37" s="256"/>
       <c r="D37" s="256"/>
       <c r="E37" s="28" t="s">
@@ -16097,8 +16093,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="254"/>
-      <c r="B38" s="255"/>
+      <c r="A38" s="250"/>
+      <c r="B38" s="257"/>
       <c r="C38" s="256"/>
       <c r="D38" s="256"/>
       <c r="E38" s="28" t="s">
@@ -16106,8 +16102,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="254"/>
-      <c r="B39" s="255"/>
+      <c r="A39" s="250"/>
+      <c r="B39" s="257"/>
       <c r="C39" s="256"/>
       <c r="D39" s="256"/>
       <c r="E39" s="28" t="s">
@@ -16115,8 +16111,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="254"/>
-      <c r="B40" s="255"/>
+      <c r="A40" s="250"/>
+      <c r="B40" s="257"/>
       <c r="C40" s="256"/>
       <c r="D40" s="256"/>
       <c r="E40" s="28" t="s">
@@ -16124,8 +16120,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="254"/>
-      <c r="B41" s="255"/>
+      <c r="A41" s="250"/>
+      <c r="B41" s="257"/>
       <c r="C41" s="256"/>
       <c r="D41" s="256"/>
       <c r="E41" s="28" t="s">
@@ -16133,8 +16129,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="254"/>
-      <c r="B42" s="255"/>
+      <c r="A42" s="250"/>
+      <c r="B42" s="257"/>
       <c r="C42" s="256"/>
       <c r="D42" s="256"/>
       <c r="E42" s="28" t="s">
@@ -16142,8 +16138,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="254"/>
-      <c r="B43" s="255"/>
+      <c r="A43" s="250"/>
+      <c r="B43" s="257"/>
       <c r="C43" s="256"/>
       <c r="D43" s="256"/>
       <c r="E43" s="28" t="s">
@@ -16151,8 +16147,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="254"/>
-      <c r="B44" s="255"/>
+      <c r="A44" s="250"/>
+      <c r="B44" s="257"/>
       <c r="C44" s="256"/>
       <c r="D44" s="256"/>
       <c r="E44" s="28" t="s">
@@ -16160,15 +16156,15 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="254"/>
-      <c r="B45" s="255"/>
+      <c r="A45" s="250"/>
+      <c r="B45" s="257"/>
       <c r="C45" s="256"/>
       <c r="D45" s="256"/>
       <c r="E45" s="29"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="254"/>
-      <c r="B46" s="255"/>
+      <c r="A46" s="250"/>
+      <c r="B46" s="257"/>
       <c r="C46" s="256"/>
       <c r="D46" s="256"/>
       <c r="E46" s="30" t="s">
@@ -16176,15 +16172,15 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="254"/>
-      <c r="B47" s="255"/>
+      <c r="A47" s="250"/>
+      <c r="B47" s="257"/>
       <c r="C47" s="256"/>
       <c r="D47" s="256"/>
       <c r="E47" s="29"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="254"/>
-      <c r="B48" s="255"/>
+      <c r="A48" s="250"/>
+      <c r="B48" s="257"/>
       <c r="C48" s="256"/>
       <c r="D48" s="256"/>
       <c r="E48" s="26" t="s">
@@ -16192,8 +16188,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="254"/>
-      <c r="B49" s="255"/>
+      <c r="A49" s="250"/>
+      <c r="B49" s="257"/>
       <c r="C49" s="256"/>
       <c r="D49" s="256"/>
       <c r="E49" s="29" t="s">
@@ -16201,8 +16197,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="254"/>
-      <c r="B50" s="255"/>
+      <c r="A50" s="250"/>
+      <c r="B50" s="257"/>
       <c r="C50" s="256"/>
       <c r="D50" s="256"/>
       <c r="E50" s="31" t="s">
@@ -16210,8 +16206,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="254"/>
-      <c r="B51" s="255"/>
+      <c r="A51" s="250"/>
+      <c r="B51" s="257"/>
       <c r="C51" s="256"/>
       <c r="D51" s="256"/>
       <c r="E51" s="31" t="s">
@@ -16219,15 +16215,15 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="254"/>
-      <c r="B52" s="255"/>
+      <c r="A52" s="250"/>
+      <c r="B52" s="257"/>
       <c r="C52" s="256"/>
       <c r="D52" s="256"/>
       <c r="E52" s="29"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="254"/>
-      <c r="B53" s="255"/>
+      <c r="A53" s="250"/>
+      <c r="B53" s="257"/>
       <c r="C53" s="256"/>
       <c r="D53" s="256"/>
       <c r="E53" s="32" t="s">
@@ -16235,8 +16231,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="254"/>
-      <c r="B54" s="255"/>
+      <c r="A54" s="250"/>
+      <c r="B54" s="257"/>
       <c r="C54" s="256"/>
       <c r="D54" s="256"/>
       <c r="E54" s="32" t="s">
@@ -16244,8 +16240,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="254"/>
-      <c r="B55" s="255"/>
+      <c r="A55" s="250"/>
+      <c r="B55" s="257"/>
       <c r="C55" s="256"/>
       <c r="D55" s="256"/>
       <c r="E55" s="32" t="s">
@@ -16253,8 +16249,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="254"/>
-      <c r="B56" s="255"/>
+      <c r="A56" s="250"/>
+      <c r="B56" s="257"/>
       <c r="C56" s="256"/>
       <c r="D56" s="256"/>
       <c r="E56" s="32" t="s">
@@ -16262,8 +16258,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="254"/>
-      <c r="B57" s="255"/>
+      <c r="A57" s="250"/>
+      <c r="B57" s="257"/>
       <c r="C57" s="256"/>
       <c r="D57" s="256"/>
       <c r="E57" s="32" t="s">
@@ -16271,22 +16267,22 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="254"/>
-      <c r="B58" s="255"/>
+      <c r="A58" s="250"/>
+      <c r="B58" s="257"/>
       <c r="C58" s="256"/>
       <c r="D58" s="256"/>
       <c r="E58" s="29"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="254"/>
-      <c r="B59" s="255"/>
+      <c r="A59" s="250"/>
+      <c r="B59" s="257"/>
       <c r="C59" s="256"/>
       <c r="D59" s="256"/>
       <c r="E59" s="29"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="254"/>
-      <c r="B60" s="255"/>
+      <c r="A60" s="250"/>
+      <c r="B60" s="257"/>
       <c r="C60" s="256"/>
       <c r="D60" s="256"/>
       <c r="E60" s="26" t="s">
@@ -16294,8 +16290,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="254"/>
-      <c r="B61" s="255"/>
+      <c r="A61" s="250"/>
+      <c r="B61" s="257"/>
       <c r="C61" s="256"/>
       <c r="D61" s="256"/>
       <c r="E61" s="31" t="s">
@@ -16303,8 +16299,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="254"/>
-      <c r="B62" s="255"/>
+      <c r="A62" s="250"/>
+      <c r="B62" s="257"/>
       <c r="C62" s="256"/>
       <c r="D62" s="256"/>
       <c r="E62" s="31" t="s">
@@ -16312,8 +16308,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="254"/>
-      <c r="B63" s="255"/>
+      <c r="A63" s="250"/>
+      <c r="B63" s="257"/>
       <c r="C63" s="256"/>
       <c r="D63" s="256"/>
       <c r="E63" s="27" t="s">
@@ -16321,15 +16317,15 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="254"/>
-      <c r="B64" s="255"/>
+      <c r="A64" s="250"/>
+      <c r="B64" s="257"/>
       <c r="C64" s="256"/>
       <c r="D64" s="256"/>
       <c r="E64" s="32"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="254"/>
-      <c r="B65" s="255"/>
+      <c r="A65" s="250"/>
+      <c r="B65" s="257"/>
       <c r="C65" s="256"/>
       <c r="D65" s="256"/>
       <c r="E65" s="32" t="s">
@@ -16337,8 +16333,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="254"/>
-      <c r="B66" s="255"/>
+      <c r="A66" s="250"/>
+      <c r="B66" s="257"/>
       <c r="C66" s="256"/>
       <c r="D66" s="256"/>
       <c r="E66" s="32" t="s">
@@ -16346,8 +16342,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="254"/>
-      <c r="B67" s="255"/>
+      <c r="A67" s="250"/>
+      <c r="B67" s="257"/>
       <c r="C67" s="256"/>
       <c r="D67" s="256"/>
       <c r="E67" s="32" t="s">
@@ -16355,8 +16351,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="254"/>
-      <c r="B68" s="255"/>
+      <c r="A68" s="250"/>
+      <c r="B68" s="257"/>
       <c r="C68" s="256"/>
       <c r="D68" s="256"/>
       <c r="E68" s="32" t="s">
@@ -16364,8 +16360,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="254"/>
-      <c r="B69" s="255"/>
+      <c r="A69" s="250"/>
+      <c r="B69" s="257"/>
       <c r="C69" s="256"/>
       <c r="D69" s="256"/>
       <c r="E69" s="32" t="s">
@@ -16373,15 +16369,15 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="254"/>
-      <c r="B70" s="255"/>
+      <c r="A70" s="250"/>
+      <c r="B70" s="257"/>
       <c r="C70" s="256"/>
       <c r="D70" s="256"/>
       <c r="E70" s="32"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="254"/>
-      <c r="B71" s="255"/>
+      <c r="A71" s="250"/>
+      <c r="B71" s="257"/>
       <c r="C71" s="256"/>
       <c r="D71" s="256"/>
       <c r="E71" s="32" t="s">
@@ -16389,8 +16385,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="254"/>
-      <c r="B72" s="255"/>
+      <c r="A72" s="250"/>
+      <c r="B72" s="257"/>
       <c r="C72" s="256"/>
       <c r="D72" s="256"/>
       <c r="E72" s="32" t="s">
@@ -16398,8 +16394,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="254"/>
-      <c r="B73" s="255"/>
+      <c r="A73" s="250"/>
+      <c r="B73" s="257"/>
       <c r="C73" s="256"/>
       <c r="D73" s="256"/>
       <c r="E73" s="32" t="s">
@@ -16407,8 +16403,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="254"/>
-      <c r="B74" s="255"/>
+      <c r="A74" s="250"/>
+      <c r="B74" s="257"/>
       <c r="C74" s="256"/>
       <c r="D74" s="256"/>
       <c r="E74" s="32" t="s">
@@ -16416,8 +16412,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="254"/>
-      <c r="B75" s="255"/>
+      <c r="A75" s="250"/>
+      <c r="B75" s="257"/>
       <c r="C75" s="256"/>
       <c r="D75" s="256"/>
       <c r="E75" s="32" t="s">
@@ -16425,8 +16421,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="261"/>
-      <c r="B76" s="255"/>
+      <c r="A76" s="251"/>
+      <c r="B76" s="257"/>
       <c r="C76" s="256"/>
       <c r="D76" s="256"/>
       <c r="E76" s="33" t="s">
@@ -16434,14 +16430,14 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="253"/>
-      <c r="B77" s="255">
+      <c r="A77" s="249"/>
+      <c r="B77" s="257">
         <v>44743</v>
       </c>
-      <c r="C77" s="255">
+      <c r="C77" s="257">
         <v>44834</v>
       </c>
-      <c r="D77" s="257" t="s">
+      <c r="D77" s="264" t="s">
         <v>103</v>
       </c>
       <c r="E77" s="25" t="s">
@@ -16449,292 +16445,292 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="254"/>
-      <c r="B78" s="255"/>
+      <c r="A78" s="250"/>
+      <c r="B78" s="257"/>
       <c r="C78" s="256"/>
-      <c r="D78" s="257"/>
+      <c r="D78" s="264"/>
       <c r="E78" s="26"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="254"/>
-      <c r="B79" s="255"/>
+      <c r="A79" s="250"/>
+      <c r="B79" s="257"/>
       <c r="C79" s="256"/>
-      <c r="D79" s="257"/>
+      <c r="D79" s="264"/>
       <c r="E79" s="37" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="254"/>
-      <c r="B80" s="255"/>
+      <c r="A80" s="250"/>
+      <c r="B80" s="257"/>
       <c r="C80" s="256"/>
-      <c r="D80" s="257"/>
+      <c r="D80" s="264"/>
       <c r="E80" s="37" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="254"/>
-      <c r="B81" s="255"/>
+      <c r="A81" s="250"/>
+      <c r="B81" s="257"/>
       <c r="C81" s="256"/>
-      <c r="D81" s="257"/>
+      <c r="D81" s="264"/>
       <c r="E81" s="27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="254"/>
-      <c r="B82" s="255"/>
+      <c r="A82" s="250"/>
+      <c r="B82" s="257"/>
       <c r="C82" s="256"/>
-      <c r="D82" s="257"/>
+      <c r="D82" s="264"/>
       <c r="E82" s="27" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="254"/>
-      <c r="B83" s="255"/>
+      <c r="A83" s="250"/>
+      <c r="B83" s="257"/>
       <c r="C83" s="256"/>
-      <c r="D83" s="257"/>
+      <c r="D83" s="264"/>
       <c r="E83" s="27" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="254"/>
-      <c r="B84" s="255"/>
+      <c r="A84" s="250"/>
+      <c r="B84" s="257"/>
       <c r="C84" s="256"/>
-      <c r="D84" s="257"/>
+      <c r="D84" s="264"/>
       <c r="E84" s="27" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="254"/>
-      <c r="B85" s="255"/>
+      <c r="A85" s="250"/>
+      <c r="B85" s="257"/>
       <c r="C85" s="256"/>
-      <c r="D85" s="257"/>
+      <c r="D85" s="264"/>
       <c r="E85" s="27" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="254"/>
-      <c r="B86" s="255"/>
+      <c r="A86" s="250"/>
+      <c r="B86" s="257"/>
       <c r="C86" s="256"/>
-      <c r="D86" s="257"/>
+      <c r="D86" s="264"/>
       <c r="E86" s="27" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="254"/>
-      <c r="B87" s="255"/>
+      <c r="A87" s="250"/>
+      <c r="B87" s="257"/>
       <c r="C87" s="256"/>
-      <c r="D87" s="257"/>
+      <c r="D87" s="264"/>
       <c r="E87" s="27" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="254"/>
-      <c r="B88" s="255"/>
+      <c r="A88" s="250"/>
+      <c r="B88" s="257"/>
       <c r="C88" s="256"/>
-      <c r="D88" s="257"/>
+      <c r="D88" s="264"/>
       <c r="E88" s="27" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="254"/>
-      <c r="B89" s="255"/>
+      <c r="A89" s="250"/>
+      <c r="B89" s="257"/>
       <c r="C89" s="256"/>
-      <c r="D89" s="257"/>
+      <c r="D89" s="264"/>
       <c r="E89" s="27" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A90" s="254"/>
-      <c r="B90" s="255"/>
+      <c r="A90" s="250"/>
+      <c r="B90" s="257"/>
       <c r="C90" s="256"/>
-      <c r="D90" s="257"/>
+      <c r="D90" s="264"/>
       <c r="E90" s="27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="254"/>
-      <c r="B91" s="255"/>
+      <c r="A91" s="250"/>
+      <c r="B91" s="257"/>
       <c r="C91" s="256"/>
-      <c r="D91" s="257"/>
+      <c r="D91" s="264"/>
       <c r="E91" s="27" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="254"/>
-      <c r="B92" s="255"/>
+      <c r="A92" s="250"/>
+      <c r="B92" s="257"/>
       <c r="C92" s="256"/>
-      <c r="D92" s="257"/>
+      <c r="D92" s="264"/>
       <c r="E92" s="27" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="254"/>
-      <c r="B93" s="255"/>
+      <c r="A93" s="250"/>
+      <c r="B93" s="257"/>
       <c r="C93" s="256"/>
-      <c r="D93" s="257"/>
+      <c r="D93" s="264"/>
       <c r="E93" s="34" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="254"/>
-      <c r="B94" s="255"/>
+      <c r="A94" s="250"/>
+      <c r="B94" s="257"/>
       <c r="C94" s="256"/>
-      <c r="D94" s="257"/>
+      <c r="D94" s="264"/>
       <c r="E94" s="34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="254"/>
-      <c r="B95" s="255"/>
+      <c r="A95" s="250"/>
+      <c r="B95" s="257"/>
       <c r="C95" s="256"/>
-      <c r="D95" s="257"/>
+      <c r="D95" s="264"/>
       <c r="E95" s="34" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="254"/>
-      <c r="B96" s="255"/>
+      <c r="A96" s="250"/>
+      <c r="B96" s="257"/>
       <c r="C96" s="256"/>
-      <c r="D96" s="257"/>
+      <c r="D96" s="264"/>
       <c r="E96" s="27" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="254"/>
-      <c r="B97" s="255"/>
+      <c r="A97" s="250"/>
+      <c r="B97" s="257"/>
       <c r="C97" s="256"/>
-      <c r="D97" s="257"/>
+      <c r="D97" s="264"/>
       <c r="E97" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="254"/>
-      <c r="B98" s="255"/>
+      <c r="A98" s="250"/>
+      <c r="B98" s="257"/>
       <c r="C98" s="256"/>
-      <c r="D98" s="257"/>
+      <c r="D98" s="264"/>
       <c r="E98" s="28" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="254"/>
-      <c r="B99" s="255"/>
+      <c r="A99" s="250"/>
+      <c r="B99" s="257"/>
       <c r="C99" s="256"/>
-      <c r="D99" s="257"/>
+      <c r="D99" s="264"/>
       <c r="E99" s="28" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="254"/>
-      <c r="B100" s="255"/>
+      <c r="A100" s="250"/>
+      <c r="B100" s="257"/>
       <c r="C100" s="256"/>
-      <c r="D100" s="257"/>
+      <c r="D100" s="264"/>
       <c r="E100" s="28" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="254"/>
-      <c r="B101" s="255"/>
+      <c r="A101" s="250"/>
+      <c r="B101" s="257"/>
       <c r="C101" s="256"/>
-      <c r="D101" s="257"/>
+      <c r="D101" s="264"/>
       <c r="E101" s="29"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="254"/>
-      <c r="B102" s="255"/>
+      <c r="A102" s="250"/>
+      <c r="B102" s="257"/>
       <c r="C102" s="256"/>
-      <c r="D102" s="257"/>
+      <c r="D102" s="264"/>
       <c r="E102" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="254"/>
-      <c r="B103" s="255"/>
+      <c r="A103" s="250"/>
+      <c r="B103" s="257"/>
       <c r="C103" s="256"/>
-      <c r="D103" s="257"/>
+      <c r="D103" s="264"/>
       <c r="E103" s="29"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="254"/>
-      <c r="B104" s="255"/>
+      <c r="A104" s="250"/>
+      <c r="B104" s="257"/>
       <c r="C104" s="256"/>
-      <c r="D104" s="257"/>
+      <c r="D104" s="264"/>
       <c r="E104" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="254"/>
-      <c r="B105" s="255"/>
+      <c r="A105" s="250"/>
+      <c r="B105" s="257"/>
       <c r="C105" s="256"/>
-      <c r="D105" s="257"/>
+      <c r="D105" s="264"/>
       <c r="E105" s="36" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="254"/>
-      <c r="B106" s="255"/>
+      <c r="A106" s="250"/>
+      <c r="B106" s="257"/>
       <c r="C106" s="256"/>
-      <c r="D106" s="257"/>
+      <c r="D106" s="264"/>
       <c r="E106" s="29"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="254"/>
-      <c r="B107" s="255"/>
+      <c r="A107" s="250"/>
+      <c r="B107" s="257"/>
       <c r="C107" s="256"/>
-      <c r="D107" s="257"/>
+      <c r="D107" s="264"/>
       <c r="E107" s="26" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A108" s="254"/>
-      <c r="B108" s="255"/>
+      <c r="A108" s="250"/>
+      <c r="B108" s="257"/>
       <c r="C108" s="256"/>
-      <c r="D108" s="257"/>
+      <c r="D108" s="264"/>
       <c r="E108" s="28" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="254"/>
-      <c r="B109" s="255"/>
+      <c r="A109" s="250"/>
+      <c r="B109" s="257"/>
       <c r="C109" s="256"/>
-      <c r="D109" s="257"/>
+      <c r="D109" s="264"/>
       <c r="E109" s="38"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="253"/>
-      <c r="B110" s="255">
+      <c r="A110" s="249"/>
+      <c r="B110" s="257">
         <v>44835</v>
       </c>
-      <c r="C110" s="255">
+      <c r="C110" s="257">
         <v>45016</v>
       </c>
-      <c r="D110" s="257" t="s">
+      <c r="D110" s="264" t="s">
         <v>128</v>
       </c>
       <c r="E110" s="25" t="s">
@@ -16742,543 +16738,543 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="254"/>
-      <c r="B111" s="255"/>
+      <c r="A111" s="250"/>
+      <c r="B111" s="257"/>
       <c r="C111" s="256"/>
-      <c r="D111" s="257"/>
+      <c r="D111" s="264"/>
       <c r="E111" s="27" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="254"/>
-      <c r="B112" s="255"/>
+      <c r="A112" s="250"/>
+      <c r="B112" s="257"/>
       <c r="C112" s="256"/>
-      <c r="D112" s="257"/>
+      <c r="D112" s="264"/>
       <c r="E112" s="27" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="254"/>
-      <c r="B113" s="255"/>
+      <c r="A113" s="250"/>
+      <c r="B113" s="257"/>
       <c r="C113" s="256"/>
-      <c r="D113" s="257"/>
+      <c r="D113" s="264"/>
       <c r="E113" s="27" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="254"/>
-      <c r="B114" s="255"/>
+      <c r="A114" s="250"/>
+      <c r="B114" s="257"/>
       <c r="C114" s="256"/>
-      <c r="D114" s="257"/>
+      <c r="D114" s="264"/>
       <c r="E114" s="27" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="254"/>
-      <c r="B115" s="255"/>
+      <c r="A115" s="250"/>
+      <c r="B115" s="257"/>
       <c r="C115" s="256"/>
-      <c r="D115" s="257"/>
+      <c r="D115" s="264"/>
       <c r="E115" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A116" s="254"/>
-      <c r="B116" s="255"/>
+      <c r="A116" s="250"/>
+      <c r="B116" s="257"/>
       <c r="C116" s="256"/>
-      <c r="D116" s="257"/>
+      <c r="D116" s="264"/>
       <c r="E116" s="27" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="254"/>
-      <c r="B117" s="255"/>
+      <c r="A117" s="250"/>
+      <c r="B117" s="257"/>
       <c r="C117" s="256"/>
-      <c r="D117" s="257"/>
+      <c r="D117" s="264"/>
       <c r="E117" s="27" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A118" s="254"/>
-      <c r="B118" s="255"/>
+      <c r="A118" s="250"/>
+      <c r="B118" s="257"/>
       <c r="C118" s="256"/>
-      <c r="D118" s="257"/>
+      <c r="D118" s="264"/>
       <c r="E118" s="27" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A119" s="254"/>
-      <c r="B119" s="255"/>
+      <c r="A119" s="250"/>
+      <c r="B119" s="257"/>
       <c r="C119" s="256"/>
-      <c r="D119" s="257"/>
+      <c r="D119" s="264"/>
       <c r="E119" s="27" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A120" s="254"/>
-      <c r="B120" s="255"/>
+      <c r="A120" s="250"/>
+      <c r="B120" s="257"/>
       <c r="C120" s="256"/>
-      <c r="D120" s="257"/>
+      <c r="D120" s="264"/>
       <c r="E120" s="27" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A121" s="254"/>
-      <c r="B121" s="255"/>
+      <c r="A121" s="250"/>
+      <c r="B121" s="257"/>
       <c r="C121" s="256"/>
-      <c r="D121" s="257"/>
+      <c r="D121" s="264"/>
       <c r="E121" s="27" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A122" s="254"/>
-      <c r="B122" s="255"/>
+      <c r="A122" s="250"/>
+      <c r="B122" s="257"/>
       <c r="C122" s="256"/>
-      <c r="D122" s="257"/>
+      <c r="D122" s="264"/>
       <c r="E122" s="27" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A123" s="254"/>
-      <c r="B123" s="255"/>
+      <c r="A123" s="250"/>
+      <c r="B123" s="257"/>
       <c r="C123" s="256"/>
-      <c r="D123" s="257"/>
+      <c r="D123" s="264"/>
       <c r="E123" s="27" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A124" s="254"/>
-      <c r="B124" s="255"/>
+      <c r="A124" s="250"/>
+      <c r="B124" s="257"/>
       <c r="C124" s="256"/>
-      <c r="D124" s="257"/>
+      <c r="D124" s="264"/>
       <c r="E124" s="27" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="254"/>
-      <c r="B125" s="255"/>
+      <c r="A125" s="250"/>
+      <c r="B125" s="257"/>
       <c r="C125" s="256"/>
-      <c r="D125" s="257"/>
+      <c r="D125" s="264"/>
       <c r="E125" s="27" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A126" s="254"/>
-      <c r="B126" s="255"/>
+      <c r="A126" s="250"/>
+      <c r="B126" s="257"/>
       <c r="C126" s="256"/>
-      <c r="D126" s="257"/>
+      <c r="D126" s="264"/>
       <c r="E126" s="27" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A127" s="254"/>
-      <c r="B127" s="255"/>
+      <c r="A127" s="250"/>
+      <c r="B127" s="257"/>
       <c r="C127" s="256"/>
-      <c r="D127" s="257"/>
+      <c r="D127" s="264"/>
       <c r="E127" s="27" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A128" s="254"/>
-      <c r="B128" s="255"/>
+      <c r="A128" s="250"/>
+      <c r="B128" s="257"/>
       <c r="C128" s="256"/>
-      <c r="D128" s="257"/>
+      <c r="D128" s="264"/>
       <c r="E128" s="27" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A129" s="254"/>
-      <c r="B129" s="255"/>
+      <c r="A129" s="250"/>
+      <c r="B129" s="257"/>
       <c r="C129" s="256"/>
-      <c r="D129" s="257"/>
+      <c r="D129" s="264"/>
       <c r="E129" s="37"/>
     </row>
     <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A130" s="254"/>
-      <c r="B130" s="255"/>
+      <c r="A130" s="250"/>
+      <c r="B130" s="257"/>
       <c r="C130" s="256"/>
-      <c r="D130" s="257"/>
+      <c r="D130" s="264"/>
       <c r="E130" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A131" s="254"/>
-      <c r="B131" s="255"/>
+      <c r="A131" s="250"/>
+      <c r="B131" s="257"/>
       <c r="C131" s="256"/>
-      <c r="D131" s="257"/>
+      <c r="D131" s="264"/>
       <c r="E131" s="26"/>
     </row>
     <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A132" s="254"/>
-      <c r="B132" s="255"/>
+      <c r="A132" s="250"/>
+      <c r="B132" s="257"/>
       <c r="C132" s="256"/>
-      <c r="D132" s="257"/>
+      <c r="D132" s="264"/>
       <c r="E132" s="37" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A133" s="254"/>
-      <c r="B133" s="255"/>
+      <c r="A133" s="250"/>
+      <c r="B133" s="257"/>
       <c r="C133" s="256"/>
-      <c r="D133" s="257"/>
+      <c r="D133" s="264"/>
       <c r="E133" s="37" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A134" s="254"/>
-      <c r="B134" s="255"/>
+      <c r="A134" s="250"/>
+      <c r="B134" s="257"/>
       <c r="C134" s="256"/>
-      <c r="D134" s="257"/>
+      <c r="D134" s="264"/>
       <c r="E134" s="37" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A135" s="254"/>
-      <c r="B135" s="255"/>
+      <c r="A135" s="250"/>
+      <c r="B135" s="257"/>
       <c r="C135" s="256"/>
-      <c r="D135" s="257"/>
+      <c r="D135" s="264"/>
       <c r="E135" s="37" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="254"/>
-      <c r="B136" s="255"/>
+      <c r="A136" s="250"/>
+      <c r="B136" s="257"/>
       <c r="C136" s="256"/>
-      <c r="D136" s="257"/>
+      <c r="D136" s="264"/>
       <c r="E136" s="37" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A137" s="254"/>
-      <c r="B137" s="255"/>
+      <c r="A137" s="250"/>
+      <c r="B137" s="257"/>
       <c r="C137" s="256"/>
-      <c r="D137" s="257"/>
+      <c r="D137" s="264"/>
       <c r="E137" s="37" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A138" s="254"/>
-      <c r="B138" s="255"/>
+      <c r="A138" s="250"/>
+      <c r="B138" s="257"/>
       <c r="C138" s="256"/>
-      <c r="D138" s="257"/>
+      <c r="D138" s="264"/>
       <c r="E138" s="27" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="254"/>
-      <c r="B139" s="255"/>
+      <c r="A139" s="250"/>
+      <c r="B139" s="257"/>
       <c r="C139" s="256"/>
-      <c r="D139" s="257"/>
+      <c r="D139" s="264"/>
       <c r="E139" s="39" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="254"/>
-      <c r="B140" s="255"/>
+      <c r="A140" s="250"/>
+      <c r="B140" s="257"/>
       <c r="C140" s="256"/>
-      <c r="D140" s="257"/>
+      <c r="D140" s="264"/>
       <c r="E140" s="39" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="254"/>
-      <c r="B141" s="255"/>
+      <c r="A141" s="250"/>
+      <c r="B141" s="257"/>
       <c r="C141" s="256"/>
-      <c r="D141" s="257"/>
+      <c r="D141" s="264"/>
       <c r="E141" s="39" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="254"/>
-      <c r="B142" s="255"/>
+      <c r="A142" s="250"/>
+      <c r="B142" s="257"/>
       <c r="C142" s="256"/>
-      <c r="D142" s="257"/>
+      <c r="D142" s="264"/>
       <c r="E142" s="39" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="254"/>
-      <c r="B143" s="255"/>
+      <c r="A143" s="250"/>
+      <c r="B143" s="257"/>
       <c r="C143" s="256"/>
-      <c r="D143" s="257"/>
+      <c r="D143" s="264"/>
       <c r="E143" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="254"/>
-      <c r="B144" s="255"/>
+      <c r="A144" s="250"/>
+      <c r="B144" s="257"/>
       <c r="C144" s="256"/>
-      <c r="D144" s="257"/>
+      <c r="D144" s="264"/>
       <c r="E144" s="34" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="254"/>
-      <c r="B145" s="255"/>
+      <c r="A145" s="250"/>
+      <c r="B145" s="257"/>
       <c r="C145" s="256"/>
-      <c r="D145" s="257"/>
+      <c r="D145" s="264"/>
       <c r="E145" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="254"/>
-      <c r="B146" s="255"/>
+      <c r="A146" s="250"/>
+      <c r="B146" s="257"/>
       <c r="C146" s="256"/>
-      <c r="D146" s="257"/>
+      <c r="D146" s="264"/>
       <c r="E146" s="34" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="254"/>
-      <c r="B147" s="255"/>
+      <c r="A147" s="250"/>
+      <c r="B147" s="257"/>
       <c r="C147" s="256"/>
-      <c r="D147" s="257"/>
+      <c r="D147" s="264"/>
       <c r="E147" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="254"/>
-      <c r="B148" s="255"/>
+      <c r="A148" s="250"/>
+      <c r="B148" s="257"/>
       <c r="C148" s="256"/>
-      <c r="D148" s="257"/>
+      <c r="D148" s="264"/>
       <c r="E148" s="34" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="254"/>
-      <c r="B149" s="255"/>
+      <c r="A149" s="250"/>
+      <c r="B149" s="257"/>
       <c r="C149" s="256"/>
-      <c r="D149" s="257"/>
+      <c r="D149" s="264"/>
       <c r="E149" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="254"/>
-      <c r="B150" s="255"/>
+      <c r="A150" s="250"/>
+      <c r="B150" s="257"/>
       <c r="C150" s="256"/>
-      <c r="D150" s="257"/>
+      <c r="D150" s="264"/>
       <c r="E150" s="34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="254"/>
-      <c r="B151" s="255"/>
+      <c r="A151" s="250"/>
+      <c r="B151" s="257"/>
       <c r="C151" s="256"/>
-      <c r="D151" s="257"/>
+      <c r="D151" s="264"/>
       <c r="E151" s="34" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="254"/>
-      <c r="B152" s="255"/>
+      <c r="A152" s="250"/>
+      <c r="B152" s="257"/>
       <c r="C152" s="256"/>
-      <c r="D152" s="257"/>
+      <c r="D152" s="264"/>
       <c r="E152" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="254"/>
-      <c r="B153" s="255"/>
+      <c r="A153" s="250"/>
+      <c r="B153" s="257"/>
       <c r="C153" s="256"/>
-      <c r="D153" s="257"/>
+      <c r="D153" s="264"/>
       <c r="E153" s="34" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="254"/>
-      <c r="B154" s="255"/>
+      <c r="A154" s="250"/>
+      <c r="B154" s="257"/>
       <c r="C154" s="256"/>
-      <c r="D154" s="257"/>
+      <c r="D154" s="264"/>
       <c r="E154" s="34" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="254"/>
-      <c r="B155" s="255"/>
+      <c r="A155" s="250"/>
+      <c r="B155" s="257"/>
       <c r="C155" s="256"/>
-      <c r="D155" s="257"/>
+      <c r="D155" s="264"/>
       <c r="E155" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="254"/>
-      <c r="B156" s="255"/>
+      <c r="A156" s="250"/>
+      <c r="B156" s="257"/>
       <c r="C156" s="256"/>
-      <c r="D156" s="257"/>
+      <c r="D156" s="264"/>
       <c r="E156" s="34" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="254"/>
-      <c r="B157" s="255"/>
+      <c r="A157" s="250"/>
+      <c r="B157" s="257"/>
       <c r="C157" s="256"/>
-      <c r="D157" s="257"/>
+      <c r="D157" s="264"/>
       <c r="E157" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="254"/>
-      <c r="B158" s="255"/>
+      <c r="A158" s="250"/>
+      <c r="B158" s="257"/>
       <c r="C158" s="256"/>
-      <c r="D158" s="257"/>
+      <c r="D158" s="264"/>
       <c r="E158" s="34" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="254"/>
-      <c r="B159" s="255"/>
+      <c r="A159" s="250"/>
+      <c r="B159" s="257"/>
       <c r="C159" s="256"/>
-      <c r="D159" s="257"/>
+      <c r="D159" s="264"/>
       <c r="E159" s="34" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="254"/>
-      <c r="B160" s="255"/>
+      <c r="A160" s="250"/>
+      <c r="B160" s="257"/>
       <c r="C160" s="256"/>
-      <c r="D160" s="257"/>
+      <c r="D160" s="264"/>
       <c r="E160" s="34" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="254"/>
-      <c r="B161" s="255"/>
+      <c r="A161" s="250"/>
+      <c r="B161" s="257"/>
       <c r="C161" s="256"/>
-      <c r="D161" s="257"/>
+      <c r="D161" s="264"/>
       <c r="E161" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="254"/>
-      <c r="B162" s="255"/>
+      <c r="A162" s="250"/>
+      <c r="B162" s="257"/>
       <c r="C162" s="256"/>
-      <c r="D162" s="257"/>
+      <c r="D162" s="264"/>
       <c r="E162" s="34" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="254"/>
-      <c r="B163" s="255"/>
+      <c r="A163" s="250"/>
+      <c r="B163" s="257"/>
       <c r="C163" s="256"/>
-      <c r="D163" s="257"/>
+      <c r="D163" s="264"/>
       <c r="E163" s="34" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="254"/>
-      <c r="B164" s="255"/>
+      <c r="A164" s="250"/>
+      <c r="B164" s="257"/>
       <c r="C164" s="256"/>
-      <c r="D164" s="257"/>
+      <c r="D164" s="264"/>
       <c r="E164" s="34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="254"/>
-      <c r="B165" s="255"/>
+      <c r="A165" s="250"/>
+      <c r="B165" s="257"/>
       <c r="C165" s="256"/>
-      <c r="D165" s="257"/>
+      <c r="D165" s="264"/>
       <c r="E165" s="40" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="254"/>
-      <c r="B166" s="255"/>
+      <c r="A166" s="250"/>
+      <c r="B166" s="257"/>
       <c r="C166" s="256"/>
-      <c r="D166" s="257"/>
+      <c r="D166" s="264"/>
       <c r="E166" s="29"/>
     </row>
     <row r="167" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A167" s="254"/>
-      <c r="B167" s="255"/>
+      <c r="A167" s="250"/>
+      <c r="B167" s="257"/>
       <c r="C167" s="256"/>
-      <c r="D167" s="257"/>
+      <c r="D167" s="264"/>
       <c r="E167" s="30" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A168" s="254"/>
-      <c r="B168" s="255"/>
+      <c r="A168" s="250"/>
+      <c r="B168" s="257"/>
       <c r="C168" s="256"/>
-      <c r="D168" s="257"/>
+      <c r="D168" s="264"/>
       <c r="E168" s="29"/>
     </row>
     <row r="169" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A169" s="254"/>
-      <c r="B169" s="255"/>
+      <c r="A169" s="250"/>
+      <c r="B169" s="257"/>
       <c r="C169" s="256"/>
-      <c r="D169" s="257"/>
+      <c r="D169" s="264"/>
       <c r="E169" s="34" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A170" s="254"/>
-      <c r="B170" s="258"/>
-      <c r="C170" s="250"/>
-      <c r="D170" s="259"/>
+      <c r="A170" s="250"/>
+      <c r="B170" s="265"/>
+      <c r="C170" s="261"/>
+      <c r="D170" s="266"/>
       <c r="E170" s="34" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="260"/>
-      <c r="B171" s="255">
+      <c r="A171" s="267"/>
+      <c r="B171" s="257">
         <v>45017</v>
       </c>
-      <c r="C171" s="255">
+      <c r="C171" s="257">
         <v>45107</v>
       </c>
       <c r="D171" s="256" t="s">
@@ -17289,8 +17285,8 @@
       </c>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="260"/>
-      <c r="B172" s="255"/>
+      <c r="A172" s="267"/>
+      <c r="B172" s="257"/>
       <c r="C172" s="256"/>
       <c r="D172" s="256"/>
       <c r="E172" s="42" t="s">
@@ -17298,8 +17294,8 @@
       </c>
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="260"/>
-      <c r="B173" s="255"/>
+      <c r="A173" s="267"/>
+      <c r="B173" s="257"/>
       <c r="C173" s="256"/>
       <c r="D173" s="256"/>
       <c r="E173" s="42" t="s">
@@ -17307,8 +17303,8 @@
       </c>
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="260"/>
-      <c r="B174" s="255"/>
+      <c r="A174" s="267"/>
+      <c r="B174" s="257"/>
       <c r="C174" s="256"/>
       <c r="D174" s="256"/>
       <c r="E174" s="42" t="s">
@@ -17316,8 +17312,8 @@
       </c>
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="260"/>
-      <c r="B175" s="255"/>
+      <c r="A175" s="267"/>
+      <c r="B175" s="257"/>
       <c r="C175" s="256"/>
       <c r="D175" s="256"/>
       <c r="E175" s="42" t="s">
@@ -17325,8 +17321,8 @@
       </c>
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="260"/>
-      <c r="B176" s="255"/>
+      <c r="A176" s="267"/>
+      <c r="B176" s="257"/>
       <c r="C176" s="256"/>
       <c r="D176" s="256"/>
       <c r="E176" s="42" t="s">
@@ -17334,8 +17330,8 @@
       </c>
     </row>
     <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="260"/>
-      <c r="B177" s="255"/>
+      <c r="A177" s="267"/>
+      <c r="B177" s="257"/>
       <c r="C177" s="256"/>
       <c r="D177" s="256"/>
       <c r="E177" s="42" t="s">
@@ -17343,8 +17339,8 @@
       </c>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="260"/>
-      <c r="B178" s="255"/>
+      <c r="A178" s="267"/>
+      <c r="B178" s="257"/>
       <c r="C178" s="256"/>
       <c r="D178" s="256"/>
       <c r="E178" s="42" t="s">
@@ -17352,8 +17348,8 @@
       </c>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="260"/>
-      <c r="B179" s="255"/>
+      <c r="A179" s="267"/>
+      <c r="B179" s="257"/>
       <c r="C179" s="256"/>
       <c r="D179" s="256"/>
       <c r="E179" s="42" t="s">
@@ -17361,8 +17357,8 @@
       </c>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="260"/>
-      <c r="B180" s="255"/>
+      <c r="A180" s="267"/>
+      <c r="B180" s="257"/>
       <c r="C180" s="256"/>
       <c r="D180" s="256"/>
       <c r="E180" s="42" t="s">
@@ -17370,8 +17366,8 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="260"/>
-      <c r="B181" s="255"/>
+      <c r="A181" s="267"/>
+      <c r="B181" s="257"/>
       <c r="C181" s="256"/>
       <c r="D181" s="256"/>
       <c r="E181" s="42" t="s">
@@ -17379,8 +17375,8 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="260"/>
-      <c r="B182" s="255"/>
+      <c r="A182" s="267"/>
+      <c r="B182" s="257"/>
       <c r="C182" s="256"/>
       <c r="D182" s="256"/>
       <c r="E182" s="42" t="s">
@@ -17388,8 +17384,8 @@
       </c>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="260"/>
-      <c r="B183" s="255"/>
+      <c r="A183" s="267"/>
+      <c r="B183" s="257"/>
       <c r="C183" s="256"/>
       <c r="D183" s="256"/>
       <c r="E183" s="42" t="s">
@@ -17397,8 +17393,8 @@
       </c>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="260"/>
-      <c r="B184" s="255"/>
+      <c r="A184" s="267"/>
+      <c r="B184" s="257"/>
       <c r="C184" s="256"/>
       <c r="D184" s="256"/>
       <c r="E184" s="42" t="s">
@@ -17406,8 +17402,8 @@
       </c>
     </row>
     <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="260"/>
-      <c r="B185" s="255"/>
+      <c r="A185" s="267"/>
+      <c r="B185" s="257"/>
       <c r="C185" s="256"/>
       <c r="D185" s="256"/>
       <c r="E185" s="42" t="s">
@@ -17415,8 +17411,8 @@
       </c>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="260"/>
-      <c r="B186" s="255"/>
+      <c r="A186" s="267"/>
+      <c r="B186" s="257"/>
       <c r="C186" s="256"/>
       <c r="D186" s="256"/>
       <c r="E186" s="42" t="s">
@@ -17424,8 +17420,8 @@
       </c>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="260"/>
-      <c r="B187" s="255"/>
+      <c r="A187" s="267"/>
+      <c r="B187" s="257"/>
       <c r="C187" s="256"/>
       <c r="D187" s="256"/>
       <c r="E187" s="42" t="s">
@@ -17433,15 +17429,15 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="260"/>
-      <c r="B188" s="255"/>
+      <c r="A188" s="267"/>
+      <c r="B188" s="257"/>
       <c r="C188" s="256"/>
       <c r="D188" s="256"/>
       <c r="E188" s="43"/>
     </row>
     <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="260"/>
-      <c r="B189" s="255"/>
+      <c r="A189" s="267"/>
+      <c r="B189" s="257"/>
       <c r="C189" s="256"/>
       <c r="D189" s="256"/>
       <c r="E189" s="44" t="s">
@@ -17449,8 +17445,8 @@
       </c>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="260"/>
-      <c r="B190" s="255"/>
+      <c r="A190" s="267"/>
+      <c r="B190" s="257"/>
       <c r="C190" s="256"/>
       <c r="D190" s="256"/>
       <c r="E190" s="45" t="s">
@@ -17458,8 +17454,8 @@
       </c>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="260"/>
-      <c r="B191" s="255"/>
+      <c r="A191" s="267"/>
+      <c r="B191" s="257"/>
       <c r="C191" s="256"/>
       <c r="D191" s="256"/>
       <c r="E191" s="45" t="s">
@@ -17467,8 +17463,8 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="260"/>
-      <c r="B192" s="255"/>
+      <c r="A192" s="267"/>
+      <c r="B192" s="257"/>
       <c r="C192" s="256"/>
       <c r="D192" s="256"/>
       <c r="E192" s="45" t="s">
@@ -17476,8 +17472,8 @@
       </c>
     </row>
     <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="260"/>
-      <c r="B193" s="255"/>
+      <c r="A193" s="267"/>
+      <c r="B193" s="257"/>
       <c r="C193" s="256"/>
       <c r="D193" s="256"/>
       <c r="E193" s="45" t="s">
@@ -17485,8 +17481,8 @@
       </c>
     </row>
     <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="260"/>
-      <c r="B194" s="255"/>
+      <c r="A194" s="267"/>
+      <c r="B194" s="257"/>
       <c r="C194" s="256"/>
       <c r="D194" s="256"/>
       <c r="E194" s="45" t="s">
@@ -17494,8 +17490,8 @@
       </c>
     </row>
     <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="260"/>
-      <c r="B195" s="255"/>
+      <c r="A195" s="267"/>
+      <c r="B195" s="257"/>
       <c r="C195" s="256"/>
       <c r="D195" s="256"/>
       <c r="E195" s="45" t="s">
@@ -17503,8 +17499,8 @@
       </c>
     </row>
     <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="260"/>
-      <c r="B196" s="255"/>
+      <c r="A196" s="267"/>
+      <c r="B196" s="257"/>
       <c r="C196" s="256"/>
       <c r="D196" s="256"/>
       <c r="E196" s="42" t="s">
@@ -17512,8 +17508,8 @@
       </c>
     </row>
     <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="260"/>
-      <c r="B197" s="255"/>
+      <c r="A197" s="267"/>
+      <c r="B197" s="257"/>
       <c r="C197" s="256"/>
       <c r="D197" s="256"/>
       <c r="E197" s="45" t="s">
@@ -17521,8 +17517,8 @@
       </c>
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="260"/>
-      <c r="B198" s="255"/>
+      <c r="A198" s="267"/>
+      <c r="B198" s="257"/>
       <c r="C198" s="256"/>
       <c r="D198" s="256"/>
       <c r="E198" s="42" t="s">
@@ -17530,8 +17526,8 @@
       </c>
     </row>
     <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="260"/>
-      <c r="B199" s="255"/>
+      <c r="A199" s="267"/>
+      <c r="B199" s="257"/>
       <c r="C199" s="256"/>
       <c r="D199" s="256"/>
       <c r="E199" s="46" t="s">
@@ -17539,8 +17535,8 @@
       </c>
     </row>
     <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="260"/>
-      <c r="B200" s="255"/>
+      <c r="A200" s="267"/>
+      <c r="B200" s="257"/>
       <c r="C200" s="256"/>
       <c r="D200" s="256"/>
       <c r="E200" s="42" t="s">
@@ -17548,8 +17544,8 @@
       </c>
     </row>
     <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="260"/>
-      <c r="B201" s="255"/>
+      <c r="A201" s="267"/>
+      <c r="B201" s="257"/>
       <c r="C201" s="256"/>
       <c r="D201" s="256"/>
       <c r="E201" s="47" t="s">
@@ -17557,8 +17553,8 @@
       </c>
     </row>
     <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="260"/>
-      <c r="B202" s="255"/>
+      <c r="A202" s="267"/>
+      <c r="B202" s="257"/>
       <c r="C202" s="256"/>
       <c r="D202" s="256"/>
       <c r="E202" s="47" t="s">
@@ -17566,8 +17562,8 @@
       </c>
     </row>
     <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="260"/>
-      <c r="B203" s="255"/>
+      <c r="A203" s="267"/>
+      <c r="B203" s="257"/>
       <c r="C203" s="256"/>
       <c r="D203" s="256"/>
       <c r="E203" s="42" t="s">
@@ -17575,15 +17571,15 @@
       </c>
     </row>
     <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="260"/>
-      <c r="B204" s="255"/>
+      <c r="A204" s="267"/>
+      <c r="B204" s="257"/>
       <c r="C204" s="256"/>
       <c r="D204" s="256"/>
       <c r="E204" s="42"/>
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="260"/>
-      <c r="B205" s="255"/>
+      <c r="A205" s="267"/>
+      <c r="B205" s="257"/>
       <c r="C205" s="256"/>
       <c r="D205" s="256"/>
       <c r="E205" s="44" t="s">
@@ -17591,8 +17587,8 @@
       </c>
     </row>
     <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="260"/>
-      <c r="B206" s="255"/>
+      <c r="A206" s="267"/>
+      <c r="B206" s="257"/>
       <c r="C206" s="256"/>
       <c r="D206" s="256"/>
       <c r="E206" s="42" t="s">
@@ -17600,8 +17596,8 @@
       </c>
     </row>
     <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="260"/>
-      <c r="B207" s="255"/>
+      <c r="A207" s="267"/>
+      <c r="B207" s="257"/>
       <c r="C207" s="256"/>
       <c r="D207" s="256"/>
       <c r="E207" s="43" t="s">
@@ -17609,8 +17605,8 @@
       </c>
     </row>
     <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="260"/>
-      <c r="B208" s="255"/>
+      <c r="A208" s="267"/>
+      <c r="B208" s="257"/>
       <c r="C208" s="256"/>
       <c r="D208" s="256"/>
       <c r="E208" s="43" t="s">
@@ -17618,8 +17614,8 @@
       </c>
     </row>
     <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="260"/>
-      <c r="B209" s="255"/>
+      <c r="A209" s="267"/>
+      <c r="B209" s="257"/>
       <c r="C209" s="256"/>
       <c r="D209" s="256"/>
       <c r="E209" s="43" t="s">
@@ -17627,8 +17623,8 @@
       </c>
     </row>
     <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="260"/>
-      <c r="B210" s="255"/>
+      <c r="A210" s="267"/>
+      <c r="B210" s="257"/>
       <c r="C210" s="256"/>
       <c r="D210" s="256"/>
       <c r="E210" s="43" t="s">
@@ -17636,8 +17632,8 @@
       </c>
     </row>
     <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="260"/>
-      <c r="B211" s="255"/>
+      <c r="A211" s="267"/>
+      <c r="B211" s="257"/>
       <c r="C211" s="256"/>
       <c r="D211" s="256"/>
       <c r="E211" s="43" t="s">
@@ -17645,8 +17641,8 @@
       </c>
     </row>
     <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="260"/>
-      <c r="B212" s="255"/>
+      <c r="A212" s="267"/>
+      <c r="B212" s="257"/>
       <c r="C212" s="256"/>
       <c r="D212" s="256"/>
       <c r="E212" s="43" t="s">
@@ -17654,8 +17650,8 @@
       </c>
     </row>
     <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="260"/>
-      <c r="B213" s="255"/>
+      <c r="A213" s="267"/>
+      <c r="B213" s="257"/>
       <c r="C213" s="256"/>
       <c r="D213" s="256"/>
       <c r="E213" s="43" t="s">
@@ -17663,8 +17659,8 @@
       </c>
     </row>
     <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="260"/>
-      <c r="B214" s="255"/>
+      <c r="A214" s="267"/>
+      <c r="B214" s="257"/>
       <c r="C214" s="256"/>
       <c r="D214" s="256"/>
       <c r="E214" s="43" t="s">
@@ -17672,8 +17668,8 @@
       </c>
     </row>
     <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="260"/>
-      <c r="B215" s="255"/>
+      <c r="A215" s="267"/>
+      <c r="B215" s="257"/>
       <c r="C215" s="256"/>
       <c r="D215" s="256"/>
       <c r="E215" s="43" t="s">
@@ -17681,8 +17677,8 @@
       </c>
     </row>
     <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="260"/>
-      <c r="B216" s="255"/>
+      <c r="A216" s="267"/>
+      <c r="B216" s="257"/>
       <c r="C216" s="256"/>
       <c r="D216" s="256"/>
       <c r="E216" s="43" t="s">
@@ -17690,8 +17686,8 @@
       </c>
     </row>
     <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="260"/>
-      <c r="B217" s="255"/>
+      <c r="A217" s="267"/>
+      <c r="B217" s="257"/>
       <c r="C217" s="256"/>
       <c r="D217" s="256"/>
       <c r="E217" s="43" t="s">
@@ -17699,8 +17695,8 @@
       </c>
     </row>
     <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="260"/>
-      <c r="B218" s="255"/>
+      <c r="A218" s="267"/>
+      <c r="B218" s="257"/>
       <c r="C218" s="256"/>
       <c r="D218" s="256"/>
       <c r="E218" s="43" t="s">
@@ -17708,8 +17704,8 @@
       </c>
     </row>
     <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="260"/>
-      <c r="B219" s="255"/>
+      <c r="A219" s="267"/>
+      <c r="B219" s="257"/>
       <c r="C219" s="256"/>
       <c r="D219" s="256"/>
       <c r="E219" s="43" t="s">
@@ -17717,8 +17713,8 @@
       </c>
     </row>
     <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="260"/>
-      <c r="B220" s="255"/>
+      <c r="A220" s="267"/>
+      <c r="B220" s="257"/>
       <c r="C220" s="256"/>
       <c r="D220" s="256"/>
       <c r="E220" s="43" t="s">
@@ -17726,8 +17722,8 @@
       </c>
     </row>
     <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="260"/>
-      <c r="B221" s="255"/>
+      <c r="A221" s="267"/>
+      <c r="B221" s="257"/>
       <c r="C221" s="256"/>
       <c r="D221" s="256"/>
       <c r="E221" s="43" t="s">
@@ -17735,8 +17731,8 @@
       </c>
     </row>
     <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="260"/>
-      <c r="B222" s="255"/>
+      <c r="A222" s="267"/>
+      <c r="B222" s="257"/>
       <c r="C222" s="256"/>
       <c r="D222" s="256"/>
       <c r="E222" s="43" t="s">
@@ -17744,8 +17740,8 @@
       </c>
     </row>
     <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="260"/>
-      <c r="B223" s="255"/>
+      <c r="A223" s="267"/>
+      <c r="B223" s="257"/>
       <c r="C223" s="256"/>
       <c r="D223" s="256"/>
       <c r="E223" s="43" t="s">
@@ -17753,8 +17749,8 @@
       </c>
     </row>
     <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="260"/>
-      <c r="B224" s="255"/>
+      <c r="A224" s="267"/>
+      <c r="B224" s="257"/>
       <c r="C224" s="256"/>
       <c r="D224" s="256"/>
       <c r="E224" s="43" t="s">
@@ -17762,8 +17758,8 @@
       </c>
     </row>
     <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="260"/>
-      <c r="B225" s="255"/>
+      <c r="A225" s="267"/>
+      <c r="B225" s="257"/>
       <c r="C225" s="256"/>
       <c r="D225" s="256"/>
       <c r="E225" s="43" t="s">
@@ -17771,8 +17767,8 @@
       </c>
     </row>
     <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="260"/>
-      <c r="B226" s="255"/>
+      <c r="A226" s="267"/>
+      <c r="B226" s="257"/>
       <c r="C226" s="256"/>
       <c r="D226" s="256"/>
       <c r="E226" s="43" t="s">
@@ -17780,8 +17776,8 @@
       </c>
     </row>
     <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="260"/>
-      <c r="B227" s="255"/>
+      <c r="A227" s="267"/>
+      <c r="B227" s="257"/>
       <c r="C227" s="256"/>
       <c r="D227" s="256"/>
       <c r="E227" s="43" t="s">
@@ -17789,8 +17785,8 @@
       </c>
     </row>
     <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="260"/>
-      <c r="B228" s="255"/>
+      <c r="A228" s="267"/>
+      <c r="B228" s="257"/>
       <c r="C228" s="256"/>
       <c r="D228" s="256"/>
       <c r="E228" s="43" t="s">
@@ -17798,8 +17794,8 @@
       </c>
     </row>
     <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="260"/>
-      <c r="B229" s="255"/>
+      <c r="A229" s="267"/>
+      <c r="B229" s="257"/>
       <c r="C229" s="256"/>
       <c r="D229" s="256"/>
       <c r="E229" s="43" t="s">
@@ -17807,8 +17803,8 @@
       </c>
     </row>
     <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="260"/>
-      <c r="B230" s="255"/>
+      <c r="A230" s="267"/>
+      <c r="B230" s="257"/>
       <c r="C230" s="256"/>
       <c r="D230" s="256"/>
       <c r="E230" s="43" t="s">
@@ -17816,8 +17812,8 @@
       </c>
     </row>
     <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="260"/>
-      <c r="B231" s="255"/>
+      <c r="A231" s="267"/>
+      <c r="B231" s="257"/>
       <c r="C231" s="256"/>
       <c r="D231" s="256"/>
       <c r="E231" s="43" t="s">
@@ -17825,8 +17821,8 @@
       </c>
     </row>
     <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="260"/>
-      <c r="B232" s="255"/>
+      <c r="A232" s="267"/>
+      <c r="B232" s="257"/>
       <c r="C232" s="256"/>
       <c r="D232" s="256"/>
       <c r="E232" s="48" t="s">
@@ -17834,8 +17830,8 @@
       </c>
     </row>
     <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="260"/>
-      <c r="B233" s="255"/>
+      <c r="A233" s="267"/>
+      <c r="B233" s="257"/>
       <c r="C233" s="256"/>
       <c r="D233" s="256"/>
       <c r="E233" s="43" t="s">
@@ -17843,8 +17839,8 @@
       </c>
     </row>
     <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="260"/>
-      <c r="B234" s="255"/>
+      <c r="A234" s="267"/>
+      <c r="B234" s="257"/>
       <c r="C234" s="256"/>
       <c r="D234" s="256"/>
       <c r="E234" s="42" t="s">
@@ -17852,8 +17848,8 @@
       </c>
     </row>
     <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="260"/>
-      <c r="B235" s="255"/>
+      <c r="A235" s="267"/>
+      <c r="B235" s="257"/>
       <c r="C235" s="256"/>
       <c r="D235" s="256"/>
       <c r="E235" s="49" t="s">
@@ -17862,13 +17858,13 @@
     </row>
     <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="73"/>
-      <c r="B236" s="247">
+      <c r="B236" s="258">
         <v>45108</v>
       </c>
-      <c r="C236" s="247">
+      <c r="C236" s="258">
         <v>45382</v>
       </c>
-      <c r="D236" s="250" t="s">
+      <c r="D236" s="261" t="s">
         <v>287</v>
       </c>
       <c r="E236" s="63" t="s">
@@ -17877,851 +17873,851 @@
     </row>
     <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="61"/>
-      <c r="B237" s="248"/>
-      <c r="C237" s="248"/>
-      <c r="D237" s="251"/>
+      <c r="B237" s="259"/>
+      <c r="C237" s="259"/>
+      <c r="D237" s="262"/>
       <c r="E237" s="64" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="61"/>
-      <c r="B238" s="248"/>
-      <c r="C238" s="248"/>
-      <c r="D238" s="251"/>
+      <c r="B238" s="259"/>
+      <c r="C238" s="259"/>
+      <c r="D238" s="262"/>
       <c r="E238" s="64" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="61"/>
-      <c r="B239" s="248"/>
-      <c r="C239" s="248"/>
-      <c r="D239" s="251"/>
+      <c r="B239" s="259"/>
+      <c r="C239" s="259"/>
+      <c r="D239" s="262"/>
       <c r="E239" s="64" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="61"/>
-      <c r="B240" s="248"/>
-      <c r="C240" s="248"/>
-      <c r="D240" s="251"/>
+      <c r="B240" s="259"/>
+      <c r="C240" s="259"/>
+      <c r="D240" s="262"/>
       <c r="E240" s="64" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="61"/>
-      <c r="B241" s="248"/>
-      <c r="C241" s="248"/>
-      <c r="D241" s="251"/>
+      <c r="B241" s="259"/>
+      <c r="C241" s="259"/>
+      <c r="D241" s="262"/>
       <c r="E241" s="64"/>
     </row>
     <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="61"/>
-      <c r="B242" s="248"/>
-      <c r="C242" s="248"/>
-      <c r="D242" s="251"/>
+      <c r="B242" s="259"/>
+      <c r="C242" s="259"/>
+      <c r="D242" s="262"/>
       <c r="E242" s="65" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="61"/>
-      <c r="B243" s="248"/>
-      <c r="C243" s="248"/>
-      <c r="D243" s="251"/>
+      <c r="B243" s="259"/>
+      <c r="C243" s="259"/>
+      <c r="D243" s="262"/>
       <c r="E243" s="65"/>
     </row>
     <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="61"/>
-      <c r="B244" s="248"/>
-      <c r="C244" s="248"/>
-      <c r="D244" s="251"/>
+      <c r="B244" s="259"/>
+      <c r="C244" s="259"/>
+      <c r="D244" s="262"/>
       <c r="E244" s="66" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="61"/>
-      <c r="B245" s="248"/>
-      <c r="C245" s="248"/>
-      <c r="D245" s="251"/>
+      <c r="B245" s="259"/>
+      <c r="C245" s="259"/>
+      <c r="D245" s="262"/>
       <c r="E245" s="74" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="61"/>
-      <c r="B246" s="248"/>
-      <c r="C246" s="248"/>
-      <c r="D246" s="251"/>
+      <c r="B246" s="259"/>
+      <c r="C246" s="259"/>
+      <c r="D246" s="262"/>
       <c r="E246" s="74" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="61"/>
-      <c r="B247" s="248"/>
-      <c r="C247" s="248"/>
-      <c r="D247" s="251"/>
+      <c r="B247" s="259"/>
+      <c r="C247" s="259"/>
+      <c r="D247" s="262"/>
       <c r="E247" s="74" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="61"/>
-      <c r="B248" s="248"/>
-      <c r="C248" s="248"/>
-      <c r="D248" s="251"/>
+      <c r="B248" s="259"/>
+      <c r="C248" s="259"/>
+      <c r="D248" s="262"/>
       <c r="E248" s="74" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="61"/>
-      <c r="B249" s="248"/>
-      <c r="C249" s="248"/>
-      <c r="D249" s="251"/>
+      <c r="B249" s="259"/>
+      <c r="C249" s="259"/>
+      <c r="D249" s="262"/>
       <c r="E249" s="74" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="61"/>
-      <c r="B250" s="248"/>
-      <c r="C250" s="248"/>
-      <c r="D250" s="251"/>
+      <c r="B250" s="259"/>
+      <c r="C250" s="259"/>
+      <c r="D250" s="262"/>
       <c r="E250" s="74" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="61"/>
-      <c r="B251" s="248"/>
-      <c r="C251" s="248"/>
-      <c r="D251" s="251"/>
+      <c r="B251" s="259"/>
+      <c r="C251" s="259"/>
+      <c r="D251" s="262"/>
       <c r="E251" s="74" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="61"/>
-      <c r="B252" s="248"/>
-      <c r="C252" s="248"/>
-      <c r="D252" s="251"/>
+      <c r="B252" s="259"/>
+      <c r="C252" s="259"/>
+      <c r="D252" s="262"/>
       <c r="E252" s="74" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="61"/>
-      <c r="B253" s="248"/>
-      <c r="C253" s="248"/>
-      <c r="D253" s="251"/>
+      <c r="B253" s="259"/>
+      <c r="C253" s="259"/>
+      <c r="D253" s="262"/>
       <c r="E253" s="74" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="61"/>
-      <c r="B254" s="248"/>
-      <c r="C254" s="248"/>
-      <c r="D254" s="251"/>
+      <c r="B254" s="259"/>
+      <c r="C254" s="259"/>
+      <c r="D254" s="262"/>
       <c r="E254" s="74" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="61"/>
-      <c r="B255" s="248"/>
-      <c r="C255" s="248"/>
-      <c r="D255" s="251"/>
+      <c r="B255" s="259"/>
+      <c r="C255" s="259"/>
+      <c r="D255" s="262"/>
       <c r="E255" s="74" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="61"/>
-      <c r="B256" s="248"/>
-      <c r="C256" s="248"/>
-      <c r="D256" s="251"/>
+      <c r="B256" s="259"/>
+      <c r="C256" s="259"/>
+      <c r="D256" s="262"/>
       <c r="E256" s="74" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="61"/>
-      <c r="B257" s="248"/>
-      <c r="C257" s="248"/>
-      <c r="D257" s="251"/>
+      <c r="B257" s="259"/>
+      <c r="C257" s="259"/>
+      <c r="D257" s="262"/>
       <c r="E257" s="74" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="61"/>
-      <c r="B258" s="248"/>
-      <c r="C258" s="248"/>
-      <c r="D258" s="251"/>
+      <c r="B258" s="259"/>
+      <c r="C258" s="259"/>
+      <c r="D258" s="262"/>
       <c r="E258" s="74" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="61"/>
-      <c r="B259" s="248"/>
-      <c r="C259" s="248"/>
-      <c r="D259" s="251"/>
+      <c r="B259" s="259"/>
+      <c r="C259" s="259"/>
+      <c r="D259" s="262"/>
       <c r="E259" s="74" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="61"/>
-      <c r="B260" s="248"/>
-      <c r="C260" s="248"/>
-      <c r="D260" s="251"/>
+      <c r="B260" s="259"/>
+      <c r="C260" s="259"/>
+      <c r="D260" s="262"/>
       <c r="E260" s="64"/>
     </row>
     <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="61"/>
-      <c r="B261" s="248"/>
-      <c r="C261" s="248"/>
-      <c r="D261" s="251"/>
+      <c r="B261" s="259"/>
+      <c r="C261" s="259"/>
+      <c r="D261" s="262"/>
       <c r="E261" s="66" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="61"/>
-      <c r="B262" s="248"/>
-      <c r="C262" s="248"/>
-      <c r="D262" s="251"/>
+      <c r="B262" s="259"/>
+      <c r="C262" s="259"/>
+      <c r="D262" s="262"/>
       <c r="E262" s="66"/>
     </row>
     <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="61"/>
-      <c r="B263" s="248"/>
-      <c r="C263" s="248"/>
-      <c r="D263" s="251"/>
+      <c r="B263" s="259"/>
+      <c r="C263" s="259"/>
+      <c r="D263" s="262"/>
       <c r="E263" s="67" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="61"/>
-      <c r="B264" s="248"/>
-      <c r="C264" s="248"/>
-      <c r="D264" s="251"/>
+      <c r="B264" s="259"/>
+      <c r="C264" s="259"/>
+      <c r="D264" s="262"/>
       <c r="E264" s="75" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="61"/>
-      <c r="B265" s="248"/>
-      <c r="C265" s="248"/>
-      <c r="D265" s="251"/>
+      <c r="B265" s="259"/>
+      <c r="C265" s="259"/>
+      <c r="D265" s="262"/>
       <c r="E265" s="75" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="61"/>
-      <c r="B266" s="248"/>
-      <c r="C266" s="248"/>
-      <c r="D266" s="251"/>
+      <c r="B266" s="259"/>
+      <c r="C266" s="259"/>
+      <c r="D266" s="262"/>
       <c r="E266" s="75" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="61"/>
-      <c r="B267" s="248"/>
-      <c r="C267" s="248"/>
-      <c r="D267" s="251"/>
+      <c r="B267" s="259"/>
+      <c r="C267" s="259"/>
+      <c r="D267" s="262"/>
       <c r="E267" s="75" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="61"/>
-      <c r="B268" s="248"/>
-      <c r="C268" s="248"/>
-      <c r="D268" s="251"/>
+      <c r="B268" s="259"/>
+      <c r="C268" s="259"/>
+      <c r="D268" s="262"/>
       <c r="E268" s="75" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="61"/>
-      <c r="B269" s="248"/>
-      <c r="C269" s="248"/>
-      <c r="D269" s="251"/>
+      <c r="B269" s="259"/>
+      <c r="C269" s="259"/>
+      <c r="D269" s="262"/>
       <c r="E269" s="75" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="61"/>
-      <c r="B270" s="248"/>
-      <c r="C270" s="248"/>
-      <c r="D270" s="251"/>
+      <c r="B270" s="259"/>
+      <c r="C270" s="259"/>
+      <c r="D270" s="262"/>
       <c r="E270" s="67" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="61"/>
-      <c r="B271" s="248"/>
-      <c r="C271" s="248"/>
-      <c r="D271" s="251"/>
+      <c r="B271" s="259"/>
+      <c r="C271" s="259"/>
+      <c r="D271" s="262"/>
       <c r="E271" s="74" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="61"/>
-      <c r="B272" s="248"/>
-      <c r="C272" s="248"/>
-      <c r="D272" s="251"/>
+      <c r="B272" s="259"/>
+      <c r="C272" s="259"/>
+      <c r="D272" s="262"/>
       <c r="E272" s="74" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="61"/>
-      <c r="B273" s="248"/>
-      <c r="C273" s="248"/>
-      <c r="D273" s="251"/>
+      <c r="B273" s="259"/>
+      <c r="C273" s="259"/>
+      <c r="D273" s="262"/>
       <c r="E273" s="74" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="61"/>
-      <c r="B274" s="248"/>
-      <c r="C274" s="248"/>
-      <c r="D274" s="251"/>
+      <c r="B274" s="259"/>
+      <c r="C274" s="259"/>
+      <c r="D274" s="262"/>
       <c r="E274" s="64"/>
     </row>
     <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="61"/>
-      <c r="B275" s="248"/>
-      <c r="C275" s="248"/>
-      <c r="D275" s="251"/>
+      <c r="B275" s="259"/>
+      <c r="C275" s="259"/>
+      <c r="D275" s="262"/>
       <c r="E275" s="67" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="61"/>
-      <c r="B276" s="248"/>
-      <c r="C276" s="248"/>
-      <c r="D276" s="251"/>
+      <c r="B276" s="259"/>
+      <c r="C276" s="259"/>
+      <c r="D276" s="262"/>
       <c r="E276" s="75" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="61"/>
-      <c r="B277" s="248"/>
-      <c r="C277" s="248"/>
-      <c r="D277" s="251"/>
+      <c r="B277" s="259"/>
+      <c r="C277" s="259"/>
+      <c r="D277" s="262"/>
       <c r="E277" s="75" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="61"/>
-      <c r="B278" s="248"/>
-      <c r="C278" s="248"/>
-      <c r="D278" s="251"/>
+      <c r="B278" s="259"/>
+      <c r="C278" s="259"/>
+      <c r="D278" s="262"/>
       <c r="E278" s="75" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="61"/>
-      <c r="B279" s="248"/>
-      <c r="C279" s="248"/>
-      <c r="D279" s="251"/>
+      <c r="B279" s="259"/>
+      <c r="C279" s="259"/>
+      <c r="D279" s="262"/>
       <c r="E279" s="75" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="61"/>
-      <c r="B280" s="248"/>
-      <c r="C280" s="248"/>
-      <c r="D280" s="251"/>
+      <c r="B280" s="259"/>
+      <c r="C280" s="259"/>
+      <c r="D280" s="262"/>
       <c r="E280" s="67" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="61"/>
-      <c r="B281" s="248"/>
-      <c r="C281" s="248"/>
-      <c r="D281" s="251"/>
+      <c r="B281" s="259"/>
+      <c r="C281" s="259"/>
+      <c r="D281" s="262"/>
       <c r="E281" s="74" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="61"/>
-      <c r="B282" s="248"/>
-      <c r="C282" s="248"/>
-      <c r="D282" s="251"/>
+      <c r="B282" s="259"/>
+      <c r="C282" s="259"/>
+      <c r="D282" s="262"/>
       <c r="E282" s="74" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="61"/>
-      <c r="B283" s="248"/>
-      <c r="C283" s="248"/>
-      <c r="D283" s="251"/>
+      <c r="B283" s="259"/>
+      <c r="C283" s="259"/>
+      <c r="D283" s="262"/>
       <c r="E283" s="64"/>
     </row>
     <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="61"/>
-      <c r="B284" s="248"/>
-      <c r="C284" s="248"/>
-      <c r="D284" s="251"/>
+      <c r="B284" s="259"/>
+      <c r="C284" s="259"/>
+      <c r="D284" s="262"/>
       <c r="E284" s="67" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="61"/>
-      <c r="B285" s="248"/>
-      <c r="C285" s="248"/>
-      <c r="D285" s="251"/>
+      <c r="B285" s="259"/>
+      <c r="C285" s="259"/>
+      <c r="D285" s="262"/>
       <c r="E285" s="75" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="61"/>
-      <c r="B286" s="248"/>
-      <c r="C286" s="248"/>
-      <c r="D286" s="251"/>
+      <c r="B286" s="259"/>
+      <c r="C286" s="259"/>
+      <c r="D286" s="262"/>
       <c r="E286" s="75" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="61"/>
-      <c r="B287" s="248"/>
-      <c r="C287" s="248"/>
-      <c r="D287" s="251"/>
+      <c r="B287" s="259"/>
+      <c r="C287" s="259"/>
+      <c r="D287" s="262"/>
       <c r="E287" s="75" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="61"/>
-      <c r="B288" s="248"/>
-      <c r="C288" s="248"/>
-      <c r="D288" s="251"/>
+      <c r="B288" s="259"/>
+      <c r="C288" s="259"/>
+      <c r="D288" s="262"/>
       <c r="E288" s="67" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="61"/>
-      <c r="B289" s="248"/>
-      <c r="C289" s="248"/>
-      <c r="D289" s="251"/>
+      <c r="B289" s="259"/>
+      <c r="C289" s="259"/>
+      <c r="D289" s="262"/>
       <c r="E289" s="74" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="61"/>
-      <c r="B290" s="248"/>
-      <c r="C290" s="248"/>
-      <c r="D290" s="251"/>
+      <c r="B290" s="259"/>
+      <c r="C290" s="259"/>
+      <c r="D290" s="262"/>
       <c r="E290" s="74" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="61"/>
-      <c r="B291" s="248"/>
-      <c r="C291" s="248"/>
-      <c r="D291" s="251"/>
+      <c r="B291" s="259"/>
+      <c r="C291" s="259"/>
+      <c r="D291" s="262"/>
       <c r="E291" s="68"/>
     </row>
     <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="61"/>
-      <c r="B292" s="248"/>
-      <c r="C292" s="248"/>
-      <c r="D292" s="251"/>
+      <c r="B292" s="259"/>
+      <c r="C292" s="259"/>
+      <c r="D292" s="262"/>
       <c r="E292" s="66" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A293" s="61"/>
-      <c r="B293" s="248"/>
-      <c r="C293" s="248"/>
-      <c r="D293" s="251"/>
+      <c r="B293" s="259"/>
+      <c r="C293" s="259"/>
+      <c r="D293" s="262"/>
       <c r="E293" s="104" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A294" s="61"/>
-      <c r="B294" s="248"/>
-      <c r="C294" s="248"/>
-      <c r="D294" s="251"/>
+      <c r="B294" s="259"/>
+      <c r="C294" s="259"/>
+      <c r="D294" s="262"/>
       <c r="E294" s="76" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="61"/>
-      <c r="B295" s="248"/>
-      <c r="C295" s="248"/>
-      <c r="D295" s="251"/>
+      <c r="B295" s="259"/>
+      <c r="C295" s="259"/>
+      <c r="D295" s="262"/>
       <c r="E295" s="69"/>
     </row>
     <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="61"/>
-      <c r="B296" s="248"/>
-      <c r="C296" s="248"/>
-      <c r="D296" s="251"/>
+      <c r="B296" s="259"/>
+      <c r="C296" s="259"/>
+      <c r="D296" s="262"/>
       <c r="E296" s="66" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="61"/>
-      <c r="B297" s="248"/>
-      <c r="C297" s="248"/>
-      <c r="D297" s="251"/>
+      <c r="B297" s="259"/>
+      <c r="C297" s="259"/>
+      <c r="D297" s="262"/>
       <c r="E297" s="74" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="61"/>
-      <c r="B298" s="248"/>
-      <c r="C298" s="248"/>
-      <c r="D298" s="251"/>
+      <c r="B298" s="259"/>
+      <c r="C298" s="259"/>
+      <c r="D298" s="262"/>
       <c r="E298" s="74" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="61"/>
-      <c r="B299" s="248"/>
-      <c r="C299" s="248"/>
-      <c r="D299" s="251"/>
+      <c r="B299" s="259"/>
+      <c r="C299" s="259"/>
+      <c r="D299" s="262"/>
       <c r="E299" s="74" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="61"/>
-      <c r="B300" s="248"/>
-      <c r="C300" s="248"/>
-      <c r="D300" s="251"/>
+      <c r="B300" s="259"/>
+      <c r="C300" s="259"/>
+      <c r="D300" s="262"/>
       <c r="E300" s="70" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="61"/>
-      <c r="B301" s="248"/>
-      <c r="C301" s="248"/>
-      <c r="D301" s="251"/>
+      <c r="B301" s="259"/>
+      <c r="C301" s="259"/>
+      <c r="D301" s="262"/>
       <c r="E301" s="77" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="61"/>
-      <c r="B302" s="248"/>
-      <c r="C302" s="248"/>
-      <c r="D302" s="251"/>
+      <c r="B302" s="259"/>
+      <c r="C302" s="259"/>
+      <c r="D302" s="262"/>
       <c r="E302" s="77" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="61"/>
-      <c r="B303" s="248"/>
-      <c r="C303" s="248"/>
-      <c r="D303" s="251"/>
+      <c r="B303" s="259"/>
+      <c r="C303" s="259"/>
+      <c r="D303" s="262"/>
       <c r="E303" s="77" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="61"/>
-      <c r="B304" s="248"/>
-      <c r="C304" s="248"/>
-      <c r="D304" s="251"/>
+      <c r="B304" s="259"/>
+      <c r="C304" s="259"/>
+      <c r="D304" s="262"/>
       <c r="E304" s="77" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="61"/>
-      <c r="B305" s="248"/>
-      <c r="C305" s="248"/>
-      <c r="D305" s="251"/>
+      <c r="B305" s="259"/>
+      <c r="C305" s="259"/>
+      <c r="D305" s="262"/>
       <c r="E305" s="77" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="61"/>
-      <c r="B306" s="248"/>
-      <c r="C306" s="248"/>
-      <c r="D306" s="251"/>
+      <c r="B306" s="259"/>
+      <c r="C306" s="259"/>
+      <c r="D306" s="262"/>
       <c r="E306" s="77" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="61"/>
-      <c r="B307" s="248"/>
-      <c r="C307" s="248"/>
-      <c r="D307" s="251"/>
+      <c r="B307" s="259"/>
+      <c r="C307" s="259"/>
+      <c r="D307" s="262"/>
       <c r="E307" s="77" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="61"/>
-      <c r="B308" s="248"/>
-      <c r="C308" s="248"/>
-      <c r="D308" s="251"/>
+      <c r="B308" s="259"/>
+      <c r="C308" s="259"/>
+      <c r="D308" s="262"/>
       <c r="E308" s="77" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="61"/>
-      <c r="B309" s="248"/>
-      <c r="C309" s="248"/>
-      <c r="D309" s="251"/>
+      <c r="B309" s="259"/>
+      <c r="C309" s="259"/>
+      <c r="D309" s="262"/>
       <c r="E309" s="77" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="61"/>
-      <c r="B310" s="248"/>
-      <c r="C310" s="248"/>
-      <c r="D310" s="251"/>
+      <c r="B310" s="259"/>
+      <c r="C310" s="259"/>
+      <c r="D310" s="262"/>
       <c r="E310" s="77" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="61"/>
-      <c r="B311" s="248"/>
-      <c r="C311" s="248"/>
-      <c r="D311" s="251"/>
+      <c r="B311" s="259"/>
+      <c r="C311" s="259"/>
+      <c r="D311" s="262"/>
       <c r="E311" s="77" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="61"/>
-      <c r="B312" s="248"/>
-      <c r="C312" s="248"/>
-      <c r="D312" s="251"/>
+      <c r="B312" s="259"/>
+      <c r="C312" s="259"/>
+      <c r="D312" s="262"/>
       <c r="E312" s="77" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="61"/>
-      <c r="B313" s="248"/>
-      <c r="C313" s="248"/>
-      <c r="D313" s="251"/>
+      <c r="B313" s="259"/>
+      <c r="C313" s="259"/>
+      <c r="D313" s="262"/>
       <c r="E313" s="77" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="61"/>
-      <c r="B314" s="248"/>
-      <c r="C314" s="248"/>
-      <c r="D314" s="251"/>
+      <c r="B314" s="259"/>
+      <c r="C314" s="259"/>
+      <c r="D314" s="262"/>
       <c r="E314" s="77" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="61"/>
-      <c r="B315" s="248"/>
-      <c r="C315" s="248"/>
-      <c r="D315" s="251"/>
+      <c r="B315" s="259"/>
+      <c r="C315" s="259"/>
+      <c r="D315" s="262"/>
       <c r="E315" s="77" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="61"/>
-      <c r="B316" s="248"/>
-      <c r="C316" s="248"/>
-      <c r="D316" s="251"/>
+      <c r="B316" s="259"/>
+      <c r="C316" s="259"/>
+      <c r="D316" s="262"/>
       <c r="E316" s="77" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="61"/>
-      <c r="B317" s="248"/>
-      <c r="C317" s="248"/>
-      <c r="D317" s="251"/>
+      <c r="B317" s="259"/>
+      <c r="C317" s="259"/>
+      <c r="D317" s="262"/>
       <c r="E317" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="61"/>
-      <c r="B318" s="248"/>
-      <c r="C318" s="248"/>
-      <c r="D318" s="251"/>
+      <c r="B318" s="259"/>
+      <c r="C318" s="259"/>
+      <c r="D318" s="262"/>
       <c r="E318" s="77" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="61"/>
-      <c r="B319" s="248"/>
-      <c r="C319" s="248"/>
-      <c r="D319" s="251"/>
+      <c r="B319" s="259"/>
+      <c r="C319" s="259"/>
+      <c r="D319" s="262"/>
       <c r="E319" s="77" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="61"/>
-      <c r="B320" s="248"/>
-      <c r="C320" s="248"/>
-      <c r="D320" s="251"/>
+      <c r="B320" s="259"/>
+      <c r="C320" s="259"/>
+      <c r="D320" s="262"/>
       <c r="E320" s="77" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="61"/>
-      <c r="B321" s="248"/>
-      <c r="C321" s="248"/>
-      <c r="D321" s="251"/>
+      <c r="B321" s="259"/>
+      <c r="C321" s="259"/>
+      <c r="D321" s="262"/>
       <c r="E321" s="77" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="61"/>
-      <c r="B322" s="248"/>
-      <c r="C322" s="248"/>
-      <c r="D322" s="251"/>
+      <c r="B322" s="259"/>
+      <c r="C322" s="259"/>
+      <c r="D322" s="262"/>
       <c r="E322" s="77" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="61"/>
-      <c r="B323" s="248"/>
-      <c r="C323" s="248"/>
-      <c r="D323" s="251"/>
+      <c r="B323" s="259"/>
+      <c r="C323" s="259"/>
+      <c r="D323" s="262"/>
       <c r="E323" s="77" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="61"/>
-      <c r="B324" s="248"/>
-      <c r="C324" s="248"/>
-      <c r="D324" s="251"/>
+      <c r="B324" s="259"/>
+      <c r="C324" s="259"/>
+      <c r="D324" s="262"/>
       <c r="E324" s="77" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="61"/>
-      <c r="B325" s="248"/>
-      <c r="C325" s="248"/>
-      <c r="D325" s="251"/>
+      <c r="B325" s="259"/>
+      <c r="C325" s="259"/>
+      <c r="D325" s="262"/>
       <c r="E325" s="77" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="61"/>
-      <c r="B326" s="248"/>
-      <c r="C326" s="248"/>
-      <c r="D326" s="251"/>
+      <c r="B326" s="259"/>
+      <c r="C326" s="259"/>
+      <c r="D326" s="262"/>
       <c r="E326" s="77" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="61"/>
-      <c r="B327" s="248"/>
-      <c r="C327" s="248"/>
-      <c r="D327" s="251"/>
+      <c r="B327" s="259"/>
+      <c r="C327" s="259"/>
+      <c r="D327" s="262"/>
       <c r="E327" s="71"/>
     </row>
     <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="61"/>
-      <c r="B328" s="248"/>
-      <c r="C328" s="248"/>
-      <c r="D328" s="251"/>
+      <c r="B328" s="259"/>
+      <c r="C328" s="259"/>
+      <c r="D328" s="262"/>
       <c r="E328" s="114" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="61"/>
-      <c r="B329" s="248"/>
-      <c r="C329" s="248"/>
-      <c r="D329" s="251"/>
+      <c r="B329" s="259"/>
+      <c r="C329" s="259"/>
+      <c r="D329" s="262"/>
       <c r="E329" s="68"/>
     </row>
     <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="61"/>
-      <c r="B330" s="248"/>
-      <c r="C330" s="248"/>
-      <c r="D330" s="251"/>
+      <c r="B330" s="259"/>
+      <c r="C330" s="259"/>
+      <c r="D330" s="262"/>
       <c r="E330" s="114" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="61"/>
-      <c r="B331" s="248"/>
-      <c r="C331" s="248"/>
-      <c r="D331" s="251"/>
+      <c r="B331" s="259"/>
+      <c r="C331" s="259"/>
+      <c r="D331" s="262"/>
       <c r="E331" s="68"/>
     </row>
     <row r="332" spans="1:5" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A332" s="61"/>
-      <c r="B332" s="248"/>
-      <c r="C332" s="248"/>
-      <c r="D332" s="251"/>
+      <c r="B332" s="259"/>
+      <c r="C332" s="259"/>
+      <c r="D332" s="262"/>
       <c r="E332" s="66" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="62"/>
-      <c r="B333" s="249"/>
-      <c r="C333" s="249"/>
-      <c r="D333" s="252"/>
+      <c r="B333" s="260"/>
+      <c r="C333" s="260"/>
+      <c r="D333" s="263"/>
       <c r="E333" s="72"/>
     </row>
     <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18869,13 +18865,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="22">
-    <mergeCell ref="A6:A76"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D6:D76"/>
-    <mergeCell ref="C6:C76"/>
-    <mergeCell ref="B6:B76"/>
     <mergeCell ref="B236:B333"/>
     <mergeCell ref="C236:C333"/>
     <mergeCell ref="D236:D333"/>
@@ -18891,6 +18880,13 @@
     <mergeCell ref="A171:A235"/>
     <mergeCell ref="B171:B235"/>
     <mergeCell ref="C171:C235"/>
+    <mergeCell ref="A6:A76"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D6:D76"/>
+    <mergeCell ref="C6:C76"/>
+    <mergeCell ref="B6:B76"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18917,10 +18913,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="267"/>
+      <c r="B1" s="269"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -19041,10 +19037,10 @@
       <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="266" t="s">
+      <c r="A24" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="267"/>
+      <c r="B24" s="269"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
@@ -19165,10 +19161,10 @@
       <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="266" t="s">
+      <c r="A47" s="268" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="267"/>
+      <c r="B47" s="269"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
@@ -19283,10 +19279,10 @@
       <c r="B68" s="9"/>
     </row>
     <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="266" t="s">
+      <c r="A69" s="268" t="s">
         <v>216</v>
       </c>
-      <c r="B69" s="267"/>
+      <c r="B69" s="269"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
